--- a/_INTERPOLATION/area3_a.xlsx
+++ b/_INTERPOLATION/area3_a.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1433</v>
+        <v>1511</v>
       </c>
       <c r="B7" t="n">
-        <v>547179.692295347</v>
+        <v>598296.0654605319</v>
       </c>
       <c r="C7" t="n">
-        <v>7695679.138450073</v>
+        <v>7697260.094450659</v>
       </c>
       <c r="D7" t="n">
         <v>55</v>
@@ -1058,58 +1058,58 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>148°12'0.0"</t>
+          <t>149°30'0.0"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>69.36638729137039</v>
+        <v>69.36670906011641</v>
       </c>
       <c r="J7" t="n">
-        <v>148.1997206247037</v>
+        <v>149.5000423934497</v>
       </c>
       <c r="K7" t="n">
-        <v>73.54327549894694</v>
+        <v>73.36008024072218</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3309597833717782</v>
+        <v>0.2607823470411234</v>
       </c>
       <c r="M7" t="n">
-        <v>13.40888576872931</v>
+        <v>14.65396188565697</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4111924581285728</v>
+        <v>0.4613841524573722</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7220940728111522</v>
+        <v>0.2206619859578736</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03008725303379801</v>
+        <v>0.05015045135406219</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5816868919867615</v>
+        <v>0.1905717151454363</v>
       </c>
       <c r="R7" t="n">
-        <v>2.447096580082238</v>
+        <v>1.845536609829489</v>
       </c>
       <c r="S7" t="n">
-        <v>4.212215424731721</v>
+        <v>2.577733199598796</v>
       </c>
       <c r="T7" t="n">
-        <v>3.881255641359944</v>
+        <v>5.967903711133401</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4312506268177715</v>
+        <v>0.41123370110331</v>
       </c>
       <c r="V7" t="n">
         <v>100</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Granite-porphyry</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>A.GDmitrieva</t>
+          <t>A.I.Kaleschuk</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1511</v>
+        <v>1650</v>
       </c>
       <c r="B8" t="n">
-        <v>598296.0654605319</v>
+        <v>637385.4814349734</v>
       </c>
       <c r="C8" t="n">
-        <v>7697260.094450659</v>
+        <v>7725232.483095899</v>
       </c>
       <c r="D8" t="n">
         <v>55</v>
@@ -1157,53 +1157,53 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>69°22'0.0"</t>
+          <t>69°36'0.0"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>149°30'0.0"</t>
+          <t>150°32'0.0"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>69.36670906011641</v>
+        <v>69.59994003358824</v>
       </c>
       <c r="J8" t="n">
-        <v>149.5000423934497</v>
+        <v>150.5332733669215</v>
       </c>
       <c r="K8" t="n">
-        <v>73.36008024072218</v>
+        <v>72.50273877103875</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2607823470411234</v>
+        <v>0.1991833482720845</v>
       </c>
       <c r="M8" t="n">
-        <v>14.65396188565697</v>
+        <v>14.02250771835475</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4613841524573722</v>
+        <v>0.8863658998107757</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2206619859578736</v>
+        <v>1.882282641171198</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05015045135406219</v>
+        <v>0.05975500448162533</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1905717151454363</v>
+        <v>0.5875908774026491</v>
       </c>
       <c r="R8" t="n">
-        <v>1.845536609829489</v>
+        <v>2.290608505128971</v>
       </c>
       <c r="S8" t="n">
-        <v>2.577733199598796</v>
+        <v>3.485708594761478</v>
       </c>
       <c r="T8" t="n">
-        <v>5.967903711133401</v>
+        <v>3.625136938551937</v>
       </c>
       <c r="U8" t="n">
-        <v>0.41123370110331</v>
+        <v>0.4581217010257942</v>
       </c>
       <c r="V8" t="n">
         <v>100</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granite porphyraceous fine-grained</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1226,15 +1226,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>A.I.Kaleschuk</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Oth.:S03-0ol2</t>
+        </is>
+      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD8" t="n">
@@ -1243,13 +1243,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1650</v>
+        <v>1905</v>
       </c>
       <c r="B9" t="n">
-        <v>637385.4814349734</v>
+        <v>591461.7672238041</v>
       </c>
       <c r="C9" t="n">
-        <v>7725232.483095899</v>
+        <v>7704428.17607672</v>
       </c>
       <c r="D9" t="n">
         <v>55</v>
@@ -1261,63 +1261,63 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69°36'0.0"</t>
+          <t>69°26'0.0"</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>150°32'0.0"</t>
+          <t>149°20'0.0"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>69.59994003358824</v>
+        <v>69.43335316476238</v>
       </c>
       <c r="J9" t="n">
-        <v>150.5332733669215</v>
+        <v>149.3333531647624</v>
       </c>
       <c r="K9" t="n">
-        <v>72.50273877103875</v>
+        <v>72.10347582900521</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1991833482720845</v>
+        <v>0.2397123451857771</v>
       </c>
       <c r="M9" t="n">
-        <v>14.02250771835475</v>
+        <v>14.42269276867759</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8863658998107757</v>
+        <v>0.5493407910507392</v>
       </c>
       <c r="O9" t="n">
-        <v>1.882282641171198</v>
+        <v>1.25848981222533</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05975500448162533</v>
+        <v>0.04994007191370356</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5875908774026491</v>
+        <v>0.2896524170994806</v>
       </c>
       <c r="R9" t="n">
-        <v>2.290608505128971</v>
+        <v>1.388333999200959</v>
       </c>
       <c r="S9" t="n">
-        <v>3.485708594761478</v>
+        <v>3.895325609268878</v>
       </c>
       <c r="T9" t="n">
-        <v>3.625136938551937</v>
+        <v>4.834198961246504</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4581217010257942</v>
+        <v>0.9688373951258491</v>
       </c>
       <c r="V9" t="n">
         <v>100</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Granite porphyraceous fine-grained</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1330,15 +1330,19 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Oth.:S03-0ol2</t>
+          <t>Oth:so3-0.12</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD9" t="n">
@@ -1347,13 +1351,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1905</v>
+        <v>1942</v>
       </c>
       <c r="B10" t="n">
-        <v>591461.7672238041</v>
+        <v>585316.0794095512</v>
       </c>
       <c r="C10" t="n">
-        <v>7704428.17607672</v>
+        <v>7693011.613981725</v>
       </c>
       <c r="D10" t="n">
         <v>55</v>
@@ -1365,59 +1369,59 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69°26'0.0"</t>
+          <t>69°20'0.0"</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>149°20'0.0"</t>
+          <t>149°10'0.0"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>69.43335316476238</v>
+        <v>69.333075120413</v>
       </c>
       <c r="J10" t="n">
-        <v>149.3333531647624</v>
+        <v>149.1664084537464</v>
       </c>
       <c r="K10" t="n">
-        <v>72.10347582900521</v>
+        <v>71.96644362328973</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2397123451857771</v>
+        <v>0.2197143713172875</v>
       </c>
       <c r="M10" t="n">
-        <v>14.42269276867759</v>
+        <v>14.17157694996505</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5493407910507392</v>
+        <v>0.3795066413662239</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25848981222533</v>
+        <v>1.977429341855588</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04994007191370356</v>
+        <v>0.02996105063417557</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2896524170994806</v>
+        <v>0.5492859282932189</v>
       </c>
       <c r="R10" t="n">
-        <v>1.388333999200959</v>
+        <v>2.496754219514631</v>
       </c>
       <c r="S10" t="n">
-        <v>3.895325609268878</v>
+        <v>4.623988814541097</v>
       </c>
       <c r="T10" t="n">
-        <v>4.834198961246504</v>
+        <v>2.836312793368621</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9688373951258491</v>
+        <v>0.7490262658543894</v>
       </c>
       <c r="V10" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1439,11 +1443,7 @@
           <t>A.G.Dmitrieva</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Oth:so3-0.12</t>
-        </is>
-      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1942</v>
+        <v>2139</v>
       </c>
       <c r="B11" t="n">
-        <v>585316.0794095512</v>
+        <v>636637.5537831421</v>
       </c>
       <c r="C11" t="n">
-        <v>7693011.613981725</v>
+        <v>7727073.47601143</v>
       </c>
       <c r="D11" t="n">
         <v>55</v>
@@ -1473,63 +1473,63 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69°20'0.0"</t>
+          <t>69°37'0.0"</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>149°10'0.0"</t>
+          <t>150°31'0.0"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>69.333075120413</v>
+        <v>69.61680464779268</v>
       </c>
       <c r="J11" t="n">
-        <v>149.1664084537464</v>
+        <v>150.5168046477927</v>
       </c>
       <c r="K11" t="n">
-        <v>71.96644362328973</v>
+        <v>71.16246638111366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2197143713172875</v>
+        <v>0.2390676362187469</v>
       </c>
       <c r="M11" t="n">
-        <v>14.17157694996505</v>
+        <v>14.70265962745293</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3795066413662239</v>
+        <v>0.5877079390377529</v>
       </c>
       <c r="O11" t="n">
-        <v>1.977429341855588</v>
+        <v>2.400637513696584</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02996105063417557</v>
+        <v>0.03984460603645782</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5492859282932189</v>
+        <v>1.135571272039048</v>
       </c>
       <c r="R11" t="n">
-        <v>2.496754219514631</v>
+        <v>2.241259089550752</v>
       </c>
       <c r="S11" t="n">
-        <v>4.623988814541097</v>
+        <v>3.586014543281204</v>
       </c>
       <c r="T11" t="n">
-        <v>2.836312793368621</v>
+        <v>3.566092240262975</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7490262658543894</v>
+        <v>0.3386791513098915</v>
       </c>
       <c r="V11" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granite porphyraceous fine-grained</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1542,15 +1542,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Oth.:so3-0.02</t>
+        </is>
+      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD11" t="n">
@@ -1559,13 +1559,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2139</v>
+        <v>2155</v>
       </c>
       <c r="B12" t="n">
-        <v>636637.5537831421</v>
+        <v>605000.8976238684</v>
       </c>
       <c r="C12" t="n">
-        <v>7727073.47601143</v>
+        <v>7723570.669742257</v>
       </c>
       <c r="D12" t="n">
         <v>55</v>
@@ -1577,63 +1577,63 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69°37'0.0"</t>
+          <t>69°36'0.0"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>150°31'0.0"</t>
+          <t>149°42'0.0"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>69.61680464779268</v>
+        <v>69.5998583789944</v>
       </c>
       <c r="J12" t="n">
-        <v>150.5168046477927</v>
+        <v>149.6998583789944</v>
       </c>
       <c r="K12" t="n">
-        <v>71.16246638111366</v>
+        <v>71.67235494880548</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2390676362187469</v>
+        <v>0.2108010439670749</v>
       </c>
       <c r="M12" t="n">
-        <v>14.70265962745293</v>
+        <v>14.23408954025296</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5877079390377529</v>
+        <v>0.4216020879341498</v>
       </c>
       <c r="O12" t="n">
-        <v>2.400637513696584</v>
+        <v>2.097972294719936</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03984460603645782</v>
+        <v>0.05019072475406545</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.135571272039048</v>
+        <v>0.8130897410158605</v>
       </c>
       <c r="R12" t="n">
-        <v>2.241259089550752</v>
+        <v>2.057819714916683</v>
       </c>
       <c r="S12" t="n">
-        <v>3.586014543281204</v>
+        <v>4.266211604095563</v>
       </c>
       <c r="T12" t="n">
-        <v>3.566092240262975</v>
+        <v>3.533427022686208</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3386791513098915</v>
+        <v>0.6424412768520379</v>
       </c>
       <c r="V12" t="n">
         <v>100</v>
       </c>
       <c r="W12" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Granite porphyraceous fine-grained</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1646,15 +1646,19 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>Oth.:so3-0.02</t>
+          <t>Det:so3-0.07</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD12" t="n">
@@ -1663,13 +1667,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2155</v>
+        <v>2187</v>
       </c>
       <c r="B13" t="n">
-        <v>605000.8976238684</v>
+        <v>671151.2095550544</v>
       </c>
       <c r="C13" t="n">
-        <v>7723570.669742257</v>
+        <v>7734892.311148401</v>
       </c>
       <c r="D13" t="n">
         <v>55</v>
@@ -1681,68 +1685,68 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69°36'0.0"</t>
+          <t>69°40'0.0"</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>149°42'0.0"</t>
+          <t>151°25'0.0"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>69.5998583789944</v>
+        <v>69.66668045836893</v>
       </c>
       <c r="J13" t="n">
-        <v>149.6998583789944</v>
+        <v>151.416680458369</v>
       </c>
       <c r="K13" t="n">
-        <v>71.67235494880548</v>
+        <v>70.66111606700366</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2108010439670749</v>
+        <v>0.3270889087124591</v>
       </c>
       <c r="M13" t="n">
-        <v>14.23408954025296</v>
+        <v>14.48111804936069</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4216020879341498</v>
+        <v>0.7929428089999009</v>
       </c>
       <c r="O13" t="n">
-        <v>2.097972294719936</v>
+        <v>1.952621667162256</v>
       </c>
       <c r="P13" t="n">
-        <v>0.05019072475406545</v>
+        <v>0.03964714044999504</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8130897410158605</v>
+        <v>0.911884230349886</v>
       </c>
       <c r="R13" t="n">
-        <v>2.057819714916683</v>
+        <v>1.734562394687283</v>
       </c>
       <c r="S13" t="n">
-        <v>4.266211604095563</v>
+        <v>3.082565169987114</v>
       </c>
       <c r="T13" t="n">
-        <v>3.533427022686208</v>
+        <v>5.322628605411834</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6424412768520379</v>
+        <v>0.6938249578749132</v>
       </c>
       <c r="V13" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granite porphyraceous medium-grained</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1752,17 +1756,13 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Det:so3-0.07</t>
-        </is>
-      </c>
+          <t>Ulakhan</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD13" t="n">
@@ -1771,13 +1771,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2187</v>
+        <v>2195</v>
       </c>
       <c r="B14" t="n">
-        <v>671151.2095550544</v>
+        <v>630910.9419524043</v>
       </c>
       <c r="C14" t="n">
-        <v>7734892.311148401</v>
+        <v>7724867.416805355</v>
       </c>
       <c r="D14" t="n">
         <v>55</v>
@@ -1789,59 +1789,59 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69°40'0.0"</t>
+          <t>69°36'0.0"</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>151°25'0.0"</t>
+          <t>150°22'0.0"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>69.66668045836893</v>
+        <v>69.59994697965561</v>
       </c>
       <c r="J14" t="n">
-        <v>151.416680458369</v>
+        <v>150.3666136463223</v>
       </c>
       <c r="K14" t="n">
-        <v>70.66111606700366</v>
+        <v>71.07388573137901</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3270889087124591</v>
+        <v>0.2393060125635657</v>
       </c>
       <c r="M14" t="n">
-        <v>14.48111804936069</v>
+        <v>14.11905474125038</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7929428089999009</v>
+        <v>1.007079469538339</v>
       </c>
       <c r="O14" t="n">
-        <v>1.952621667162256</v>
+        <v>2.253464951640243</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03964714044999504</v>
+        <v>0.009971083856815237</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.911884230349886</v>
+        <v>1.136703559676937</v>
       </c>
       <c r="R14" t="n">
-        <v>1.734562394687283</v>
+        <v>2.542626383487885</v>
       </c>
       <c r="S14" t="n">
-        <v>3.082565169987114</v>
+        <v>2.791903479908266</v>
       </c>
       <c r="T14" t="n">
-        <v>5.322628605411834</v>
+        <v>4.387276896998705</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6938249578749132</v>
+        <v>0.4387276896998704</v>
       </c>
       <c r="V14" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W14" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1858,11 +1858,7 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Ulakhan</t>
-        </is>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1875,13 +1871,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2195</v>
+        <v>2388</v>
       </c>
       <c r="B15" t="n">
-        <v>630910.9419524043</v>
+        <v>598113.0779962307</v>
       </c>
       <c r="C15" t="n">
-        <v>7724867.416805355</v>
+        <v>7717725.030476429</v>
       </c>
       <c r="D15" t="n">
         <v>55</v>
@@ -1893,68 +1889,68 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>69°36'0.0"</t>
+          <t>69°33'0.0"</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>150°22'0.0"</t>
+          <t>149°31'0.0"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>69.59994697965561</v>
+        <v>69.55012522406363</v>
       </c>
       <c r="J15" t="n">
-        <v>150.3666136463223</v>
+        <v>149.5167918907304</v>
       </c>
       <c r="K15" t="n">
-        <v>71.07388573137901</v>
+        <v>70.61701277955271</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2393060125635657</v>
+        <v>0.3394568690095847</v>
       </c>
       <c r="M15" t="n">
-        <v>14.11905474125038</v>
+        <v>14.5267571884984</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007079469538339</v>
+        <v>0.8386581469648562</v>
       </c>
       <c r="O15" t="n">
-        <v>2.253464951640243</v>
+        <v>2.266373801916933</v>
       </c>
       <c r="P15" t="n">
-        <v>0.009971083856815237</v>
+        <v>0.06988817891373801</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.136703559676937</v>
+        <v>0.9984025559105431</v>
       </c>
       <c r="R15" t="n">
-        <v>2.542626383487885</v>
+        <v>3.164936102236422</v>
       </c>
       <c r="S15" t="n">
-        <v>2.791903479908266</v>
+        <v>3.883785942492012</v>
       </c>
       <c r="T15" t="n">
-        <v>4.387276896998705</v>
+        <v>3.055111821086262</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4387276896998704</v>
+        <v>0.2396166134185303</v>
       </c>
       <c r="V15" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W15" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Granite porphyraceous medium-grained</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -1962,11 +1958,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD15" t="n">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2388</v>
+        <v>2698</v>
       </c>
       <c r="B16" t="n">
-        <v>598113.0779962307</v>
+        <v>626476.8285116482</v>
       </c>
       <c r="C16" t="n">
-        <v>7717725.030476429</v>
+        <v>7722765.333158781</v>
       </c>
       <c r="D16" t="n">
         <v>55</v>
@@ -1993,68 +1993,68 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>69°33'0.0"</t>
+          <t>69°35'0.0"</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>149°31'0.0"</t>
+          <t>150°15'0.0"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>69.55012522406363</v>
+        <v>69.58327833294668</v>
       </c>
       <c r="J16" t="n">
-        <v>149.5167918907304</v>
+        <v>150.2499449996133</v>
       </c>
       <c r="K16" t="n">
-        <v>70.61701277955271</v>
+        <v>69.59992018357778</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3394568690095847</v>
+        <v>0.4888755861518507</v>
       </c>
       <c r="M16" t="n">
-        <v>14.5267571884984</v>
+        <v>14.83587748179188</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8386581469648562</v>
+        <v>0.8779806445176097</v>
       </c>
       <c r="O16" t="n">
-        <v>2.266373801916933</v>
+        <v>2.554125511323955</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06988817891373801</v>
+        <v>0.0598623166716552</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9984025559105431</v>
+        <v>1.606305497356081</v>
       </c>
       <c r="R16" t="n">
-        <v>3.164936102236422</v>
+        <v>2.145066347400978</v>
       </c>
       <c r="S16" t="n">
-        <v>3.883785942492012</v>
+        <v>3.432106155841565</v>
       </c>
       <c r="T16" t="n">
-        <v>3.055111821086262</v>
+        <v>3.99082111144368</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2396166134185303</v>
+        <v>0.4090591639229772</v>
       </c>
       <c r="V16" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W16" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2062,15 +2062,11 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD16" t="n">
@@ -2079,13 +2075,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2698</v>
+        <v>2797</v>
       </c>
       <c r="B17" t="n">
-        <v>626476.8285116482</v>
+        <v>598643.2494086096</v>
       </c>
       <c r="C17" t="n">
-        <v>7722765.333158781</v>
+        <v>7704708.461475557</v>
       </c>
       <c r="D17" t="n">
         <v>55</v>
@@ -2097,68 +2093,68 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>69°35'0.0"</t>
+          <t>69°26'0.0"</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>150°15'0.0"</t>
+          <t>149°31'0.0"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>69.58327833294668</v>
+        <v>69.43331317825879</v>
       </c>
       <c r="J17" t="n">
-        <v>150.2499449996133</v>
+        <v>149.5166465115921</v>
       </c>
       <c r="K17" t="n">
-        <v>69.59992018357778</v>
+        <v>69.64715316760226</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4888755861518507</v>
+        <v>0.3508420208500401</v>
       </c>
       <c r="M17" t="n">
-        <v>14.83587748179188</v>
+        <v>14.0336808340016</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8779806445176097</v>
+        <v>0.2906976744186046</v>
       </c>
       <c r="O17" t="n">
-        <v>2.554125511323955</v>
+        <v>3.317963111467522</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0598623166716552</v>
+        <v>0.07016840417000803</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.606305497356081</v>
+        <v>1.092622293504411</v>
       </c>
       <c r="R17" t="n">
-        <v>2.145066347400978</v>
+        <v>3.69887730553328</v>
       </c>
       <c r="S17" t="n">
-        <v>3.432106155841565</v>
+        <v>2.546110665597434</v>
       </c>
       <c r="T17" t="n">
-        <v>3.99082111144368</v>
+        <v>4.039695268644747</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4090591639229772</v>
+        <v>0.9121892542101042</v>
       </c>
       <c r="V17" t="n">
         <v>100</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2166,11 +2162,19 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Det:H2o+-0.56</t>
+        </is>
+      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD17" t="n">
@@ -2179,13 +2183,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2797</v>
+        <v>2824</v>
       </c>
       <c r="B18" t="n">
-        <v>598643.2494086096</v>
+        <v>601019.3297330326</v>
       </c>
       <c r="C18" t="n">
-        <v>7704708.461475557</v>
+        <v>7710387.598372714</v>
       </c>
       <c r="D18" t="n">
         <v>55</v>
@@ -2197,63 +2201,63 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>69°26'0.0"</t>
+          <t>69°29'0.0"</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>149°31'0.0"</t>
+          <t>149°35'0.0"</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>69.43331317825879</v>
+        <v>69.48330418859308</v>
       </c>
       <c r="J18" t="n">
-        <v>149.5166465115921</v>
+        <v>149.583304188593</v>
       </c>
       <c r="K18" t="n">
-        <v>69.64715316760226</v>
+        <v>69.10285771183909</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3508420208500401</v>
+        <v>0.2588867868166883</v>
       </c>
       <c r="M18" t="n">
-        <v>14.0336808340016</v>
+        <v>15.42367818380962</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2906976744186046</v>
+        <v>0.8264462809917353</v>
       </c>
       <c r="O18" t="n">
-        <v>3.317963111467522</v>
+        <v>2.300109529025192</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07016840417000803</v>
+        <v>0.05974310465000497</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.092622293504411</v>
+        <v>0.2788011550333566</v>
       </c>
       <c r="R18" t="n">
-        <v>3.69887730553328</v>
+        <v>1.832121875933486</v>
       </c>
       <c r="S18" t="n">
-        <v>2.546110665597434</v>
+        <v>3.953002091008663</v>
       </c>
       <c r="T18" t="n">
-        <v>4.039695268644747</v>
+        <v>5.247436025092103</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9121892542101042</v>
+        <v>0.7169172558000597</v>
       </c>
       <c r="V18" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W18" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granodiorite-porphyry</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2268,14 +2272,10 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>Det:H2o+-0.56</t>
-        </is>
-      </c>
+          <t>A.I.Kalischuk</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2824</v>
+        <v>2893</v>
       </c>
       <c r="B19" t="n">
-        <v>601019.3297330326</v>
+        <v>616089.9070347304</v>
       </c>
       <c r="C19" t="n">
-        <v>7710387.598372714</v>
+        <v>7709210.319106251</v>
       </c>
       <c r="D19" t="n">
         <v>55</v>
@@ -2305,63 +2305,63 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>69°29'0.0"</t>
+          <t>69°28'0.0"</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>149°35'0.0"</t>
+          <t>149°58'0.0"</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>69.48330418859308</v>
+        <v>69.46663127524624</v>
       </c>
       <c r="J19" t="n">
-        <v>149.583304188593</v>
+        <v>149.9666312752463</v>
       </c>
       <c r="K19" t="n">
-        <v>69.10285771183909</v>
+        <v>69.1423430627749</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2588867868166883</v>
+        <v>0.349860055977609</v>
       </c>
       <c r="M19" t="n">
-        <v>15.42367818380962</v>
+        <v>16.25349860055978</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8264462809917353</v>
+        <v>0.3398640543782487</v>
       </c>
       <c r="O19" t="n">
-        <v>2.300109529025192</v>
+        <v>1.419432227109156</v>
       </c>
       <c r="P19" t="n">
-        <v>0.05974310465000497</v>
+        <v>0.03998400639744103</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2788011550333566</v>
+        <v>0.969612155137945</v>
       </c>
       <c r="R19" t="n">
-        <v>1.832121875933486</v>
+        <v>5.667732906837266</v>
       </c>
       <c r="S19" t="n">
-        <v>3.953002091008663</v>
+        <v>5.04798080767693</v>
       </c>
       <c r="T19" t="n">
-        <v>5.247436025092103</v>
+        <v>0.4498200719712115</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7169172558000597</v>
+        <v>0.3198720511795282</v>
       </c>
       <c r="V19" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Granodiorite-porphyry</t>
+          <t>Hb-Bt granite</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2369,20 +2369,20 @@
           <t>K</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Ulakhan-Sis massif</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>A.I.Kalischuk</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr"/>
+          <t>E.A.Lagovskaya</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Det:H2o+-0.14</t>
+        </is>
+      </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>M.F.Dement'ev,1967</t>
         </is>
       </c>
       <c r="AD19" t="n">
@@ -2391,13 +2391,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2893</v>
+        <v>2935</v>
       </c>
       <c r="B20" t="n">
-        <v>616089.9070347304</v>
+        <v>628426.2822580194</v>
       </c>
       <c r="C20" t="n">
-        <v>7709210.319106251</v>
+        <v>7722887.687066036</v>
       </c>
       <c r="D20" t="n">
         <v>55</v>
@@ -2409,84 +2409,80 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>69°28'0.0"</t>
+          <t>69°35'0.0"</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>149°58'0.0"</t>
+          <t>150°18'0.0"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>69.46663127524624</v>
+        <v>69.58343777926879</v>
       </c>
       <c r="J20" t="n">
-        <v>149.9666312752463</v>
+        <v>150.3001044459355</v>
       </c>
       <c r="K20" t="n">
-        <v>69.1423430627749</v>
+        <v>69.02</v>
       </c>
       <c r="L20" t="n">
-        <v>0.349860055977609</v>
+        <v>0.49</v>
       </c>
       <c r="M20" t="n">
-        <v>16.25349860055978</v>
+        <v>14.87</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3398640543782487</v>
+        <v>0.8100000000000002</v>
       </c>
       <c r="O20" t="n">
-        <v>1.419432227109156</v>
+        <v>2.34</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03998400639744103</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.969612155137945</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>5.667732906837266</v>
+        <v>2.35</v>
       </c>
       <c r="S20" t="n">
-        <v>5.04798080767693</v>
+        <v>3.61</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4498200719712115</v>
+        <v>4.09</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3198720511795282</v>
+        <v>0.75</v>
       </c>
       <c r="V20" t="n">
         <v>100</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Hb-Bt granite</t>
+          <t>Granite porphyraceous medium-grained</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>E.A.Lagovskaya</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Det:H2o+-0.14</t>
-        </is>
-      </c>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Ulakhan-Sis massif</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>M.F.Dement'ev,1967</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD20" t="n">
@@ -2495,13 +2491,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2935</v>
+        <v>2958</v>
       </c>
       <c r="B21" t="n">
-        <v>628426.2822580194</v>
+        <v>594793.177199912</v>
       </c>
       <c r="C21" t="n">
-        <v>7722887.687066036</v>
+        <v>7702674.974475166</v>
       </c>
       <c r="D21" t="n">
         <v>55</v>
@@ -2513,68 +2509,68 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>69°35'0.0"</t>
+          <t>69°25'0.0"</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>150°18'0.0"</t>
+          <t>149°25'0.0"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>69.58343777926879</v>
+        <v>69.41648528420083</v>
       </c>
       <c r="J21" t="n">
-        <v>150.3001044459355</v>
+        <v>149.4164852842009</v>
       </c>
       <c r="K21" t="n">
-        <v>69.02</v>
+        <v>68.76122082585279</v>
       </c>
       <c r="L21" t="n">
-        <v>0.49</v>
+        <v>0.5286255735088771</v>
       </c>
       <c r="M21" t="n">
-        <v>14.87</v>
+        <v>14.72172351885099</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8100000000000002</v>
+        <v>0.3690404947137443</v>
       </c>
       <c r="O21" t="n">
-        <v>2.34</v>
+        <v>0.9674845401954919</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05</v>
+        <v>0.06981847197287054</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.346499102333932</v>
       </c>
       <c r="R21" t="n">
-        <v>2.35</v>
+        <v>5.09674845401955</v>
       </c>
       <c r="S21" t="n">
-        <v>3.61</v>
+        <v>2.762816676640734</v>
       </c>
       <c r="T21" t="n">
-        <v>4.09</v>
+        <v>4.987033712347896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.75</v>
+        <v>0.3889886295631359</v>
       </c>
       <c r="V21" t="n">
         <v>100</v>
       </c>
       <c r="W21" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Granite porphyraceous medium-grained</t>
+          <t>Granite-porphyry</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2582,11 +2578,19 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>A.GDmitrieva</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Oth:so3-0.12</t>
+        </is>
+      </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD21" t="n">
@@ -2595,13 +2599,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2958</v>
+        <v>2993</v>
       </c>
       <c r="B22" t="n">
-        <v>594793.177199912</v>
+        <v>610620.4009428201</v>
       </c>
       <c r="C22" t="n">
-        <v>7702674.974475166</v>
+        <v>7714543.416100763</v>
       </c>
       <c r="D22" t="n">
         <v>55</v>
@@ -2613,63 +2617,63 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>69°25'0.0"</t>
+          <t>69°31'0.0"</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>149°25'0.0"</t>
+          <t>149°50'0.0"</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>69.41648528420083</v>
+        <v>69.51672010070706</v>
       </c>
       <c r="J22" t="n">
-        <v>149.4164852842009</v>
+        <v>149.8333867673737</v>
       </c>
       <c r="K22" t="n">
-        <v>68.76122082585279</v>
+        <v>68.49178695868592</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5286255735088771</v>
+        <v>0.4380288700846192</v>
       </c>
       <c r="M22" t="n">
-        <v>14.72172351885099</v>
+        <v>14.42508710801394</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3690404947137443</v>
+        <v>1.144848183175709</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9674845401954919</v>
+        <v>3.583872573419612</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06981847197287054</v>
+        <v>0.06968641114982579</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.346499102333932</v>
+        <v>1.453459432553509</v>
       </c>
       <c r="R22" t="n">
-        <v>5.09674845401955</v>
+        <v>2.976605276256845</v>
       </c>
       <c r="S22" t="n">
-        <v>2.762816676640734</v>
+        <v>2.588352414136387</v>
       </c>
       <c r="T22" t="n">
-        <v>4.987033712347896</v>
+        <v>3.623693379790941</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3889886295631359</v>
+        <v>1.204579392732703</v>
       </c>
       <c r="V22" t="n">
         <v>100</v>
       </c>
       <c r="W22" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Granite-porphyry</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2684,17 +2688,17 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>A.GDmitrieva</t>
+          <t>E.A.Lagovskaya.</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>Oth:so3-0.12</t>
+          <t>Oth:B2o3-0.32</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>M.F.Dement'ev,1967</t>
         </is>
       </c>
       <c r="AD22" t="n">
@@ -2703,13 +2707,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2993</v>
+        <v>3060</v>
       </c>
       <c r="B23" t="n">
-        <v>610620.4009428201</v>
+        <v>602645.0922983414</v>
       </c>
       <c r="C23" t="n">
-        <v>7714543.416100763</v>
+        <v>7703031.509778458</v>
       </c>
       <c r="D23" t="n">
         <v>55</v>
@@ -2721,59 +2725,59 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>69°31'0.0"</t>
+          <t>69°25'0.0"</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>149°50'0.0"</t>
+          <t>149°37'0.0"</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>69.51672010070706</v>
+        <v>69.41678505855916</v>
       </c>
       <c r="J23" t="n">
-        <v>149.8333867673737</v>
+        <v>149.6167850585592</v>
       </c>
       <c r="K23" t="n">
-        <v>68.49178695868592</v>
+        <v>68.55799059341538</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4380288700846192</v>
+        <v>0.4403082157510256</v>
       </c>
       <c r="M23" t="n">
-        <v>14.42508710801394</v>
+        <v>14.88041629140398</v>
       </c>
       <c r="N23" t="n">
-        <v>1.144848183175709</v>
+        <v>0.1300910637446212</v>
       </c>
       <c r="O23" t="n">
-        <v>3.583872573419612</v>
+        <v>1.370959671770239</v>
       </c>
       <c r="P23" t="n">
-        <v>0.06968641114982579</v>
+        <v>0.0600420294205944</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.453459432553509</v>
+        <v>0.9206444511157809</v>
       </c>
       <c r="R23" t="n">
-        <v>2.976605276256845</v>
+        <v>4.573201240868608</v>
       </c>
       <c r="S23" t="n">
-        <v>2.588352414136387</v>
+        <v>2.681877314119884</v>
       </c>
       <c r="T23" t="n">
-        <v>3.623693379790941</v>
+        <v>5.79405583908736</v>
       </c>
       <c r="U23" t="n">
-        <v>1.204579392732703</v>
+        <v>0.5904132893025116</v>
       </c>
       <c r="V23" t="n">
         <v>100</v>
       </c>
       <c r="W23" t="n">
-        <v>0.14</v>
+        <v>0.43</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2792,17 +2796,17 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>E.A.Lagovskaya.</t>
+          <t>A.G.Dmitrieva</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>Oth:B2o3-0.32</t>
+          <t>Oth:co2-0.15</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>M.F.Dement'ev,1967</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD23" t="n">
@@ -2811,13 +2815,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3060</v>
+        <v>3074</v>
       </c>
       <c r="B24" t="n">
-        <v>602645.0922983414</v>
+        <v>596831.7894367838</v>
       </c>
       <c r="C24" t="n">
-        <v>7703031.509778458</v>
+        <v>7700906.573812575</v>
       </c>
       <c r="D24" t="n">
         <v>55</v>
@@ -2829,63 +2833,63 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>69°25'0.0"</t>
+          <t>69°24'0.0"</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>149°37'0.0"</t>
+          <t>149°28'0.0"</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>69.41678505855916</v>
+        <v>69.39991193442759</v>
       </c>
       <c r="J24" t="n">
-        <v>149.6167850585592</v>
+        <v>149.4665786010943</v>
       </c>
       <c r="K24" t="n">
-        <v>68.55799059341538</v>
+        <v>68.44946516045185</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4403082157510256</v>
+        <v>0.4198740377886633</v>
       </c>
       <c r="M24" t="n">
-        <v>14.88041629140398</v>
+        <v>14.94551634509647</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1300910637446212</v>
+        <v>0.5898230530840747</v>
       </c>
       <c r="O24" t="n">
-        <v>1.370959671770239</v>
+        <v>1.939418174547635</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0600420294205944</v>
+        <v>0.01999400179946016</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9206444511157809</v>
+        <v>1.21963410976707</v>
       </c>
       <c r="R24" t="n">
-        <v>4.573201240868608</v>
+        <v>3.718884334699589</v>
       </c>
       <c r="S24" t="n">
-        <v>2.681877314119884</v>
+        <v>3.149055283414975</v>
       </c>
       <c r="T24" t="n">
-        <v>5.79405583908736</v>
+        <v>4.468659402179346</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5904132893025116</v>
+        <v>1.079676097170848</v>
       </c>
       <c r="V24" t="n">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="W24" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2900,12 +2904,12 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>A.G.Dmitrieva</t>
+          <t>A.G.Dmiirieva</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>Oth:co2-0.15</t>
+          <t>Oth:S03-0.18</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -2919,13 +2923,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3074</v>
+        <v>3153</v>
       </c>
       <c r="B25" t="n">
-        <v>596831.7894367838</v>
+        <v>634593.0406687044</v>
       </c>
       <c r="C25" t="n">
-        <v>7700906.573812575</v>
+        <v>7728824.434274022</v>
       </c>
       <c r="D25" t="n">
         <v>55</v>
@@ -2937,63 +2941,63 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>69°24'0.0"</t>
+          <t>69°38'0.0"</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>149°28'0.0"</t>
+          <t>150°28'0.0"</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>69.39991193442759</v>
+        <v>69.63352419114537</v>
       </c>
       <c r="J25" t="n">
-        <v>149.4665786010943</v>
+        <v>150.4668575244787</v>
       </c>
       <c r="K25" t="n">
-        <v>68.44946516045185</v>
+        <v>67.94372942232864</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4198740377886633</v>
+        <v>0.3591739000299312</v>
       </c>
       <c r="M25" t="n">
-        <v>14.94551634509647</v>
+        <v>15.27486780405068</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5898230530840747</v>
+        <v>0.9079118028534372</v>
       </c>
       <c r="O25" t="n">
-        <v>1.939418174547635</v>
+        <v>2.693804250224484</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01999400179946016</v>
+        <v>0.09977052778609201</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.21963410976707</v>
+        <v>1.237154544547541</v>
       </c>
       <c r="R25" t="n">
-        <v>3.718884334699589</v>
+        <v>3.142771625261898</v>
       </c>
       <c r="S25" t="n">
-        <v>3.149055283414975</v>
+        <v>3.49196847251322</v>
       </c>
       <c r="T25" t="n">
-        <v>4.468659402179346</v>
+        <v>4.070637533672554</v>
       </c>
       <c r="U25" t="n">
-        <v>1.079676097170848</v>
+        <v>0.7782101167315176</v>
       </c>
       <c r="V25" t="n">
-        <v>99.99999999999997</v>
+        <v>100</v>
       </c>
       <c r="W25" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granite porphyraceous fine-grained</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3008,17 +3012,13 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>A.G.Dmiirieva</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>Oth:S03-0.18</t>
-        </is>
-      </c>
+          <t>Ulakhan</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD25" t="n">
@@ -3027,13 +3027,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3153</v>
+        <v>3245</v>
       </c>
       <c r="B26" t="n">
-        <v>634593.0406687044</v>
+        <v>602095.1602241604</v>
       </c>
       <c r="C26" t="n">
-        <v>7728824.434274022</v>
+        <v>7730905.382981392</v>
       </c>
       <c r="D26" t="n">
         <v>55</v>
@@ -3045,63 +3045,63 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>69°38'0.0"</t>
+          <t>69°40'0.0"</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>150°28'0.0"</t>
+          <t>149°38'0.0"</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>69.63352419114537</v>
+        <v>69.66669834586759</v>
       </c>
       <c r="J26" t="n">
-        <v>150.4668575244787</v>
+        <v>149.6333650125342</v>
       </c>
       <c r="K26" t="n">
-        <v>67.94372942232864</v>
+        <v>67.95180722891565</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3591739000299312</v>
+        <v>0.3514056224899598</v>
       </c>
       <c r="M26" t="n">
-        <v>15.27486780405068</v>
+        <v>15.91365461847389</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9079118028534372</v>
+        <v>0.5722891566265059</v>
       </c>
       <c r="O26" t="n">
-        <v>2.693804250224484</v>
+        <v>2.821285140562249</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09977052778609201</v>
+        <v>0.1104417670682731</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.237154544547541</v>
+        <v>0.7831325301204818</v>
       </c>
       <c r="R26" t="n">
-        <v>3.142771625261898</v>
+        <v>2.419678714859438</v>
       </c>
       <c r="S26" t="n">
-        <v>3.49196847251322</v>
+        <v>3.483935742971887</v>
       </c>
       <c r="T26" t="n">
-        <v>4.070637533672554</v>
+        <v>4.718875502008032</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7782101167315176</v>
+        <v>0.8734939759036142</v>
       </c>
       <c r="V26" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W26" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Granite porphyraceous fine-grained</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3116,13 +3116,17 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Ulakhan</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr"/>
+          <t>A.I.Kalischuk</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Oth:S03-0.19</t>
+        </is>
+      </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD26" t="n">
@@ -3131,13 +3135,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3245</v>
+        <v>3265</v>
       </c>
       <c r="B27" t="n">
-        <v>602095.1602241604</v>
+        <v>601432.0527740803</v>
       </c>
       <c r="C27" t="n">
-        <v>7730905.382981392</v>
+        <v>7715980.794405229</v>
       </c>
       <c r="D27" t="n">
         <v>55</v>
@@ -3149,63 +3153,63 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>69°40'0.0"</t>
+          <t>69°32'0.0"</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>149°38'0.0"</t>
+          <t>149°36'0.0"</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>69.66669834586759</v>
+        <v>69.53325430576328</v>
       </c>
       <c r="J27" t="n">
-        <v>149.6333650125342</v>
+        <v>149.5999209724299</v>
       </c>
       <c r="K27" t="n">
-        <v>67.95180722891565</v>
+        <v>67.47829557928351</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3514056224899598</v>
+        <v>0.4690150683564515</v>
       </c>
       <c r="M27" t="n">
-        <v>15.91365461847389</v>
+        <v>15.13820975950504</v>
       </c>
       <c r="N27" t="n">
-        <v>0.5722891566265059</v>
+        <v>1.39706616106177</v>
       </c>
       <c r="O27" t="n">
-        <v>2.821285140562249</v>
+        <v>2.933838938229718</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1104417670682731</v>
+        <v>0.08981139606825667</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7831325301204818</v>
+        <v>1.516814689152779</v>
       </c>
       <c r="R27" t="n">
-        <v>2.419678714859438</v>
+        <v>3.682267238798524</v>
       </c>
       <c r="S27" t="n">
-        <v>3.483935742971887</v>
+        <v>3.851910986927452</v>
       </c>
       <c r="T27" t="n">
-        <v>4.718875502008032</v>
+        <v>3.043608422313143</v>
       </c>
       <c r="U27" t="n">
-        <v>0.8734939759036142</v>
+        <v>0.399161760303363</v>
       </c>
       <c r="V27" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W27" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3220,14 +3224,10 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>A.I.Kalischuk</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Oth:S03-0.19</t>
-        </is>
-      </c>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3265</v>
+        <v>3316</v>
       </c>
       <c r="B28" t="n">
-        <v>601432.0527740803</v>
+        <v>604845.5973977689</v>
       </c>
       <c r="C28" t="n">
-        <v>7715980.794405229</v>
+        <v>7712411.039171658</v>
       </c>
       <c r="D28" t="n">
         <v>55</v>
@@ -3257,63 +3257,63 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>69°32'0.0"</t>
+          <t>69°30'0.0"</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>149°36'0.0"</t>
+          <t>149°41'0.0"</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>69.53325430576328</v>
+        <v>69.49995416328167</v>
       </c>
       <c r="J28" t="n">
-        <v>149.5999209724299</v>
+        <v>149.683287496615</v>
       </c>
       <c r="K28" t="n">
-        <v>67.47829557928351</v>
+        <v>67.41651669666066</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4690150683564515</v>
+        <v>0.4699060187962407</v>
       </c>
       <c r="M28" t="n">
-        <v>15.13820975950504</v>
+        <v>15.55688862227554</v>
       </c>
       <c r="N28" t="n">
-        <v>1.39706616106177</v>
+        <v>0.3399320135972805</v>
       </c>
       <c r="O28" t="n">
-        <v>2.933838938229718</v>
+        <v>0.9598080383923214</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08981139606825667</v>
+        <v>0.07998400319936012</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.516814689152779</v>
+        <v>1.109778044391122</v>
       </c>
       <c r="R28" t="n">
-        <v>3.682267238798524</v>
+        <v>5.998800239952009</v>
       </c>
       <c r="S28" t="n">
-        <v>3.851910986927452</v>
+        <v>4.689062187562487</v>
       </c>
       <c r="T28" t="n">
-        <v>3.043608422313143</v>
+        <v>2.689462107578484</v>
       </c>
       <c r="U28" t="n">
-        <v>0.399161760303363</v>
+        <v>0.689862027594481</v>
       </c>
       <c r="V28" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W28" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Quartz diorite porphyrite</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3331,7 +3331,11 @@
           <t>A.G.Dmitrieva</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Oth:so3-0.20</t>
+        </is>
+      </c>
       <c r="AC28" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -3343,13 +3347,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3316</v>
+        <v>3375</v>
       </c>
       <c r="B29" t="n">
-        <v>604845.5973977689</v>
+        <v>589062.8704342856</v>
       </c>
       <c r="C29" t="n">
-        <v>7712411.039171658</v>
+        <v>7698779.473454354</v>
       </c>
       <c r="D29" t="n">
         <v>55</v>
@@ -3361,63 +3365,63 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>69°30'0.0"</t>
+          <t>69°23'0.0"</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>149°41'0.0"</t>
+          <t>149°16'0.0"</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>69.49995416328167</v>
+        <v>69.38354566590206</v>
       </c>
       <c r="J29" t="n">
-        <v>149.683287496615</v>
+        <v>149.2668789992354</v>
       </c>
       <c r="K29" t="n">
-        <v>67.41651669666066</v>
+        <v>67.02223108364072</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4699060187962407</v>
+        <v>0.3688565447113947</v>
       </c>
       <c r="M29" t="n">
-        <v>15.55688862227554</v>
+        <v>15.63154221912072</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3399320135972805</v>
+        <v>0.3688565447113947</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9598080383923214</v>
+        <v>2.801315920645997</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07998400319936012</v>
+        <v>0.05981457481806399</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.109778044391122</v>
+        <v>0.8473731432559066</v>
       </c>
       <c r="R29" t="n">
-        <v>5.998800239952009</v>
+        <v>2.322799322101485</v>
       </c>
       <c r="S29" t="n">
-        <v>4.689062187562487</v>
+        <v>3.58887448908384</v>
       </c>
       <c r="T29" t="n">
-        <v>2.689462107578484</v>
+        <v>4.206958428870501</v>
       </c>
       <c r="U29" t="n">
-        <v>0.689862027594481</v>
+        <v>2.781377729039976</v>
       </c>
       <c r="V29" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W29" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Quartz diorite porphyrite</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3432,12 +3436,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>A.G.Dmitrieva</t>
+          <t>A.I.Kalischuk.</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>Oth:so3-0.20</t>
+          <t>Oth:S03-I.77</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -3451,13 +3455,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3375</v>
+        <v>3440</v>
       </c>
       <c r="B30" t="n">
-        <v>589062.8704342856</v>
+        <v>629123.2193528812</v>
       </c>
       <c r="C30" t="n">
-        <v>7698779.473454354</v>
+        <v>7709877.362468005</v>
       </c>
       <c r="D30" t="n">
         <v>55</v>
@@ -3469,63 +3473,63 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>69°23'0.0"</t>
+          <t>69°28'0.0"</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>149°16'0.0"</t>
+          <t>150°18'0.0"</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>69.38354566590206</v>
+        <v>69.46662156094661</v>
       </c>
       <c r="J30" t="n">
-        <v>149.2668789992354</v>
+        <v>150.29995489428</v>
       </c>
       <c r="K30" t="n">
-        <v>67.02223108364072</v>
+        <v>66.76637750523481</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3688565447113947</v>
+        <v>0.4486987735566857</v>
       </c>
       <c r="M30" t="n">
-        <v>15.63154221912072</v>
+        <v>15.81413899690896</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3688565447113947</v>
+        <v>0.378901186558979</v>
       </c>
       <c r="O30" t="n">
-        <v>2.801315920645997</v>
+        <v>4.108086549007878</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05981457481806399</v>
+        <v>0.08973975471133713</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8473731432559066</v>
+        <v>1.116761391963307</v>
       </c>
       <c r="R30" t="n">
-        <v>2.322799322101485</v>
+        <v>3.250573337321767</v>
       </c>
       <c r="S30" t="n">
-        <v>3.58887448908384</v>
+        <v>3.400139595173996</v>
       </c>
       <c r="T30" t="n">
-        <v>4.206958428870501</v>
+        <v>3.469937182171702</v>
       </c>
       <c r="U30" t="n">
-        <v>2.781377729039976</v>
+        <v>1.156645727390568</v>
       </c>
       <c r="V30" t="n">
         <v>100</v>
       </c>
       <c r="W30" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3540,17 +3544,17 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>A.I.Kalischuk.</t>
+          <t>E.A.Lagovskaya.</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>Oth:S03-I.77</t>
+          <t>Oth:Ba2o3-0.28.Det.:H2o+-0.30</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>M.F.Dement'ev,1967</t>
         </is>
       </c>
       <c r="AD30" t="n">
@@ -3559,13 +3563,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3440</v>
+        <v>3604</v>
       </c>
       <c r="B31" t="n">
-        <v>629123.2193528812</v>
+        <v>599371.4227136846</v>
       </c>
       <c r="C31" t="n">
-        <v>7709877.362468005</v>
+        <v>7702872.719364369</v>
       </c>
       <c r="D31" t="n">
         <v>55</v>
@@ -3577,59 +3581,59 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>69°28'0.0"</t>
+          <t>69°25'0.0"</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>150°18'0.0"</t>
+          <t>149°32'0.0"</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>69.46662156094661</v>
+        <v>69.41659726076907</v>
       </c>
       <c r="J31" t="n">
-        <v>150.29995489428</v>
+        <v>149.5332639274357</v>
       </c>
       <c r="K31" t="n">
-        <v>66.76637750523481</v>
+        <v>66.15692153923038</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4486987735566857</v>
+        <v>0.5497251374312845</v>
       </c>
       <c r="M31" t="n">
-        <v>15.81413899690896</v>
+        <v>15.84207896051974</v>
       </c>
       <c r="N31" t="n">
-        <v>0.378901186558979</v>
+        <v>1.199400299850075</v>
       </c>
       <c r="O31" t="n">
-        <v>4.108086549007878</v>
+        <v>2.55872063968016</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08973975471133713</v>
+        <v>0.05997001499250374</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.116761391963307</v>
+        <v>1.129435282358821</v>
       </c>
       <c r="R31" t="n">
-        <v>3.250573337321767</v>
+        <v>2.71864067966017</v>
       </c>
       <c r="S31" t="n">
-        <v>3.400139595173996</v>
+        <v>2.918540729635183</v>
       </c>
       <c r="T31" t="n">
-        <v>3.469937182171702</v>
+        <v>4.807596201899051</v>
       </c>
       <c r="U31" t="n">
-        <v>1.156645727390568</v>
+        <v>2.058970514742628</v>
       </c>
       <c r="V31" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3648,17 +3652,17 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>E.A.Lagovskaya.</t>
+          <t>AI.Kalischuk</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>Oth:Ba2o3-0.28.Det.:H2o+-0.30</t>
+          <t>Oth:S03-0.73</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>M.F.Dement'ev,1967</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD31" t="n">
@@ -3667,13 +3671,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3604</v>
+        <v>3625</v>
       </c>
       <c r="B32" t="n">
-        <v>599371.4227136846</v>
+        <v>608118.9683193864</v>
       </c>
       <c r="C32" t="n">
-        <v>7702872.719364369</v>
+        <v>7697677.917908614</v>
       </c>
       <c r="D32" t="n">
         <v>55</v>
@@ -3685,68 +3689,68 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>69°25'0.0"</t>
+          <t>69°22'0.0"</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>149°32'0.0"</t>
+          <t>149°45'0.0"</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>69.41659726076907</v>
+        <v>69.36667641923171</v>
       </c>
       <c r="J32" t="n">
-        <v>149.5332639274357</v>
+        <v>149.750009752565</v>
       </c>
       <c r="K32" t="n">
-        <v>66.15692153923038</v>
+        <v>65.80047789725209</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5497251374312845</v>
+        <v>0.617283950617284</v>
       </c>
       <c r="M32" t="n">
-        <v>15.84207896051974</v>
+        <v>16.49741138988451</v>
       </c>
       <c r="N32" t="n">
-        <v>1.199400299850075</v>
+        <v>0.8363201911589008</v>
       </c>
       <c r="O32" t="n">
-        <v>2.55872063968016</v>
+        <v>3.006770211071287</v>
       </c>
       <c r="P32" t="n">
-        <v>0.05997001499250374</v>
+        <v>0.07964954201513341</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.129435282358821</v>
+        <v>1.184786937475109</v>
       </c>
       <c r="R32" t="n">
-        <v>2.71864067966017</v>
+        <v>3.484667463162087</v>
       </c>
       <c r="S32" t="n">
-        <v>2.918540729635183</v>
+        <v>3.20589406610912</v>
       </c>
       <c r="T32" t="n">
-        <v>4.807596201899051</v>
+        <v>4.500199123855038</v>
       </c>
       <c r="U32" t="n">
-        <v>2.058970514742628</v>
+        <v>0.7865392273994425</v>
       </c>
       <c r="V32" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W32" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -3756,14 +3760,10 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>AI.Kalischuk</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>Oth:S03-0.73</t>
-        </is>
-      </c>
+          <t>A.I.Kalischuk</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3625</v>
+        <v>3770</v>
       </c>
       <c r="B33" t="n">
-        <v>608118.9683193864</v>
+        <v>601842.3660802873</v>
       </c>
       <c r="C33" t="n">
-        <v>7697677.917908614</v>
+        <v>7721576.403708065</v>
       </c>
       <c r="D33" t="n">
         <v>55</v>
@@ -3793,68 +3793,68 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>69°22'0.0"</t>
+          <t>69°35'0.0"</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>149°45'0.0"</t>
+          <t>149°37'0.0"</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>69.36667641923171</v>
+        <v>69.58322495841766</v>
       </c>
       <c r="J33" t="n">
-        <v>149.750009752565</v>
+        <v>149.616558291751</v>
       </c>
       <c r="K33" t="n">
-        <v>65.80047789725209</v>
+        <v>65.29106858054227</v>
       </c>
       <c r="L33" t="n">
-        <v>0.617283950617284</v>
+        <v>0.7675438596491229</v>
       </c>
       <c r="M33" t="n">
-        <v>16.49741138988451</v>
+        <v>15.82934609250399</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8363201911589008</v>
+        <v>1.176236044657097</v>
       </c>
       <c r="O33" t="n">
-        <v>3.006770211071287</v>
+        <v>3.090111642743222</v>
       </c>
       <c r="P33" t="n">
-        <v>0.07964954201513341</v>
+        <v>0.03987240829346093</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.184786937475109</v>
+        <v>1.52511961722488</v>
       </c>
       <c r="R33" t="n">
-        <v>3.484667463162087</v>
+        <v>3.767942583732057</v>
       </c>
       <c r="S33" t="n">
-        <v>3.20589406610912</v>
+        <v>3.299441786283892</v>
       </c>
       <c r="T33" t="n">
-        <v>4.500199123855038</v>
+        <v>3.588516746411483</v>
       </c>
       <c r="U33" t="n">
-        <v>0.7865392273994425</v>
+        <v>1.624800637958533</v>
       </c>
       <c r="V33" t="n">
         <v>100</v>
       </c>
       <c r="W33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granite-porphyry</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -3864,10 +3864,14 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>A.I.Kalischuk</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr"/>
+          <t xml:space="preserve">AoGoDmitrievao </t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Oth:S03-l.ll</t>
+        </is>
+      </c>
       <c r="AC33" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -3879,13 +3883,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3754</v>
+        <v>3800</v>
       </c>
       <c r="B34" t="n">
-        <v>644431.0015876376</v>
+        <v>671687.5652027825</v>
       </c>
       <c r="C34" t="n">
-        <v>7747995.182000922</v>
+        <v>7727472.125275296</v>
       </c>
       <c r="D34" t="n">
         <v>55</v>
@@ -3897,68 +3901,68 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>69°48'0.0"</t>
+          <t>69°36'0.0"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>150°45'0.0"</t>
+          <t>151°25'0.0"</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>69.79988936340962</v>
+        <v>69.59998968076462</v>
       </c>
       <c r="J34" t="n">
-        <v>150.7498893634097</v>
+        <v>151.4166563474314</v>
       </c>
       <c r="K34" t="n">
-        <v>65.01984126984128</v>
+        <v>65.32161406312424</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5456349206349207</v>
+        <v>0.6492209348781461</v>
       </c>
       <c r="M34" t="n">
-        <v>16.71626984126984</v>
+        <v>16.57011586096684</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7990411506192568</v>
       </c>
       <c r="O34" t="n">
-        <v>3.809523809523809</v>
+        <v>2.696763883339992</v>
       </c>
       <c r="P34" t="n">
-        <v>0.03968253968253968</v>
+        <v>0.02996404314822212</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.202380952380953</v>
+        <v>2.237315221733919</v>
       </c>
       <c r="R34" t="n">
-        <v>4.027777777777778</v>
+        <v>3.595685177786655</v>
       </c>
       <c r="S34" t="n">
-        <v>3.571428571428572</v>
+        <v>2.716739912105473</v>
       </c>
       <c r="T34" t="n">
-        <v>1.994047619047619</v>
+        <v>3.695565321614062</v>
       </c>
       <c r="U34" t="n">
-        <v>1.359126984126984</v>
+        <v>1.68797443068318</v>
       </c>
       <c r="V34" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Quartz diorite</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -3967,10 +3971,14 @@
         </is>
       </c>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Oth.:S03-0.17.Det.:co2-0.30</t>
+        </is>
+      </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>M.F.Dement'ev,1967</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD34" t="n">
@@ -3979,13 +3987,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3770</v>
+        <v>3819</v>
       </c>
       <c r="B35" t="n">
-        <v>601842.3660802873</v>
+        <v>671415.3945913811</v>
       </c>
       <c r="C35" t="n">
-        <v>7721576.403708065</v>
+        <v>7731167.267283794</v>
       </c>
       <c r="D35" t="n">
         <v>55</v>
@@ -3997,68 +4005,68 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>69°35'0.0"</t>
+          <t>69°38'0.0"</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>149°37'0.0"</t>
+          <t>151°25'0.0"</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>69.58322495841766</v>
+        <v>69.63320402415728</v>
       </c>
       <c r="J35" t="n">
-        <v>149.616558291751</v>
+        <v>151.4165373574907</v>
       </c>
       <c r="K35" t="n">
-        <v>65.29106858054227</v>
+        <v>64.94332869357726</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7675438596491229</v>
+        <v>0.4573473851660371</v>
       </c>
       <c r="M35" t="n">
-        <v>15.82934609250399</v>
+        <v>15.63929210578644</v>
       </c>
       <c r="N35" t="n">
-        <v>1.176236044657097</v>
+        <v>0.626367070988268</v>
       </c>
       <c r="O35" t="n">
-        <v>3.090111642743222</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="P35" t="n">
-        <v>0.03987240829346093</v>
+        <v>0.1093656790614436</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.52511961722488</v>
+        <v>2.515410618413203</v>
       </c>
       <c r="R35" t="n">
-        <v>3.767942583732057</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="S35" t="n">
-        <v>3.299441786283892</v>
+        <v>2.982700338039372</v>
       </c>
       <c r="T35" t="n">
-        <v>3.588516746411483</v>
+        <v>3.022469675879897</v>
       </c>
       <c r="U35" t="n">
-        <v>1.624800637958533</v>
+        <v>1.193080135215749</v>
       </c>
       <c r="V35" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W35" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Granite-porphyry</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4066,19 +4074,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">AoGoDmitrievao </t>
-        </is>
-      </c>
+      <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>Oth:S03-l.ll</t>
+          <t>Oth.:S03-0.18.Det.:H2o+-0.13</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD35" t="n">
@@ -4087,13 +4091,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3800</v>
+        <v>3825</v>
       </c>
       <c r="B36" t="n">
-        <v>671687.5652027825</v>
+        <v>600629.0267661618</v>
       </c>
       <c r="C36" t="n">
-        <v>7727472.125275296</v>
+        <v>7719680.24579291</v>
       </c>
       <c r="D36" t="n">
         <v>55</v>
@@ -4105,59 +4109,59 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>69°36'0.0"</t>
+          <t>69°34'0.0"</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>151°25'0.0"</t>
+          <t>149°35'0.0"</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>69.59998968076462</v>
+        <v>69.5667009373385</v>
       </c>
       <c r="J36" t="n">
-        <v>151.4166563474314</v>
+        <v>149.5833676040051</v>
       </c>
       <c r="K36" t="n">
-        <v>65.32161406312424</v>
+        <v>65.45673317958489</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6492209348781461</v>
+        <v>0.6116514589391356</v>
       </c>
       <c r="M36" t="n">
-        <v>16.57011586096684</v>
+        <v>15.07069086533641</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7990411506192568</v>
+        <v>0.4712724355760554</v>
       </c>
       <c r="O36" t="n">
-        <v>2.696763883339992</v>
+        <v>1.875062669206859</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02996404314822212</v>
+        <v>0.07018951168154018</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.237315221733919</v>
+        <v>1.11300511380728</v>
       </c>
       <c r="R36" t="n">
-        <v>3.595685177786655</v>
+        <v>6.517597513285872</v>
       </c>
       <c r="S36" t="n">
-        <v>2.716739912105473</v>
+        <v>2.978040709916776</v>
       </c>
       <c r="T36" t="n">
-        <v>3.695565321614062</v>
+        <v>4.983455329389352</v>
       </c>
       <c r="U36" t="n">
-        <v>1.68797443068318</v>
+        <v>0.8523012132758448</v>
       </c>
       <c r="V36" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W36" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4166,7 +4170,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4174,15 +4178,19 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>Oth.:S03-0.17.Det.:co2-0.30</t>
+          <t>Oth:S03-0.24</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD36" t="n">
@@ -4191,13 +4199,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3819</v>
+        <v>3856</v>
       </c>
       <c r="B37" t="n">
-        <v>671415.3945913811</v>
+        <v>629721.3170460161</v>
       </c>
       <c r="C37" t="n">
-        <v>7731167.267283794</v>
+        <v>7722954.425668067</v>
       </c>
       <c r="D37" t="n">
         <v>55</v>
@@ -4209,68 +4217,68 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>69°38'0.0"</t>
+          <t>69°35'0.0"</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>151°25'0.0"</t>
+          <t>150°20'0.0"</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>69.63320402415728</v>
+        <v>69.58340556779925</v>
       </c>
       <c r="J37" t="n">
-        <v>151.4165373574907</v>
+        <v>150.3334055677992</v>
       </c>
       <c r="K37" t="n">
-        <v>64.94332869357726</v>
+        <v>64.82937021191921</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4573473851660371</v>
+        <v>0.6765495970550195</v>
       </c>
       <c r="M37" t="n">
-        <v>15.63929210578644</v>
+        <v>16.72470400955129</v>
       </c>
       <c r="N37" t="n">
-        <v>0.626367070988268</v>
+        <v>0.9252810665605413</v>
       </c>
       <c r="O37" t="n">
-        <v>3.191489361702128</v>
+        <v>3.790667595264153</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1093656790614436</v>
+        <v>0.08954332902198786</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.515410618413203</v>
+        <v>1.114316983384738</v>
       </c>
       <c r="R37" t="n">
-        <v>5.319148936170213</v>
+        <v>2.686299870659636</v>
       </c>
       <c r="S37" t="n">
-        <v>2.982700338039372</v>
+        <v>3.691175007461944</v>
       </c>
       <c r="T37" t="n">
-        <v>3.022469675879897</v>
+        <v>4.566709780121381</v>
       </c>
       <c r="U37" t="n">
-        <v>1.193080135215749</v>
+        <v>0.9053825490000996</v>
       </c>
       <c r="V37" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W37" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Granite porphyraceous fine-grained</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4281,7 +4289,7 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>Oth.:S03-0.18.Det.:H2o+-0.13</t>
+          <t>Oth:S03-0.23</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -4295,13 +4303,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3825</v>
+        <v>3991</v>
       </c>
       <c r="B38" t="n">
-        <v>600629.0267661618</v>
+        <v>590964.0842376247</v>
       </c>
       <c r="C38" t="n">
-        <v>7719680.24579291</v>
+        <v>7717424.808509464</v>
       </c>
       <c r="D38" t="n">
         <v>55</v>
@@ -4313,63 +4321,63 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>69°34'0.0"</t>
+          <t>69°33'0.0"</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>149°35'0.0"</t>
+          <t>149°20'0.0"</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>69.5667009373385</v>
+        <v>69.54997703351572</v>
       </c>
       <c r="J38" t="n">
-        <v>149.5833676040051</v>
+        <v>149.333310366849</v>
       </c>
       <c r="K38" t="n">
-        <v>65.45673317958489</v>
+        <v>64.70352162135046</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6116514589391356</v>
+        <v>0.6722183204575098</v>
       </c>
       <c r="M38" t="n">
-        <v>15.07069086533641</v>
+        <v>15.28042540383265</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4712724355760554</v>
+        <v>0.5116885722885522</v>
       </c>
       <c r="O38" t="n">
-        <v>1.875062669206859</v>
+        <v>2.01665496137253</v>
       </c>
       <c r="P38" t="n">
-        <v>0.07018951168154018</v>
+        <v>0.07023176482391895</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.11300511380728</v>
+        <v>1.364502859436139</v>
       </c>
       <c r="R38" t="n">
-        <v>6.517597513285872</v>
+        <v>6.521521019363901</v>
       </c>
       <c r="S38" t="n">
-        <v>2.978040709916776</v>
+        <v>3.421290257850909</v>
       </c>
       <c r="T38" t="n">
-        <v>4.983455329389352</v>
+        <v>4.795826226547608</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8523012132758448</v>
+        <v>0.6421189926758304</v>
       </c>
       <c r="V38" t="n">
         <v>100</v>
       </c>
       <c r="W38" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Bt granodiorite</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4384,14 +4392,10 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>Oth:S03-0.24</t>
-        </is>
-      </c>
+          <t>A.GDmitrieva</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -4403,13 +4407,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3856</v>
+        <v>4080</v>
       </c>
       <c r="B39" t="n">
-        <v>629721.3170460161</v>
+        <v>670508.3386669446</v>
       </c>
       <c r="C39" t="n">
-        <v>7722954.425668067</v>
+        <v>7734853.185783997</v>
       </c>
       <c r="D39" t="n">
         <v>55</v>
@@ -4421,68 +4425,68 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>69°35'0.0"</t>
+          <t>69°40'0.0"</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>150°20'0.0"</t>
+          <t>151°24'0.0"</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>69.58340556779925</v>
+        <v>69.66674614976057</v>
       </c>
       <c r="J39" t="n">
-        <v>150.3334055677992</v>
+        <v>151.4000794830939</v>
       </c>
       <c r="K39" t="n">
-        <v>64.82937021191921</v>
+        <v>63.86386386386386</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6765495970550195</v>
+        <v>0.4604604604604604</v>
       </c>
       <c r="M39" t="n">
-        <v>16.72470400955129</v>
+        <v>16.21621621621621</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9252810665605413</v>
+        <v>1.201201201201201</v>
       </c>
       <c r="O39" t="n">
-        <v>3.790667595264153</v>
+        <v>2.772772772772773</v>
       </c>
       <c r="P39" t="n">
-        <v>0.08954332902198786</v>
+        <v>0.1101101101101101</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.114316983384738</v>
+        <v>2.292292292292292</v>
       </c>
       <c r="R39" t="n">
-        <v>2.686299870659636</v>
+        <v>5.455455455455455</v>
       </c>
       <c r="S39" t="n">
-        <v>3.691175007461944</v>
+        <v>3.163163163163163</v>
       </c>
       <c r="T39" t="n">
-        <v>4.566709780121381</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9053825490000996</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="V39" t="n">
         <v>100</v>
       </c>
       <c r="W39" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Granite porphyraceous fine-grained</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -4493,7 +4497,7 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>Oth:S03-0.23</t>
+          <t>Oth.:S03-0.04</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -4507,13 +4511,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3991</v>
+        <v>4088</v>
       </c>
       <c r="B40" t="n">
-        <v>590964.0842376247</v>
+        <v>680683.051474323</v>
       </c>
       <c r="C40" t="n">
-        <v>7717424.808509464</v>
+        <v>7737473.465856426</v>
       </c>
       <c r="D40" t="n">
         <v>55</v>
@@ -4525,68 +4529,68 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>69°33'0.0"</t>
+          <t>69°41'0.0"</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>149°20'0.0"</t>
+          <t>151°40'0.0"</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>69.54997703351572</v>
+        <v>69.68340733684619</v>
       </c>
       <c r="J40" t="n">
-        <v>149.333310366849</v>
+        <v>151.6667406701796</v>
       </c>
       <c r="K40" t="n">
-        <v>64.70352162135046</v>
+        <v>64.04178384893531</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6722183204575098</v>
+        <v>0.6126958617918842</v>
       </c>
       <c r="M40" t="n">
-        <v>15.28042540383265</v>
+        <v>15.9602249899558</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5116885722885522</v>
+        <v>1.456408196062676</v>
       </c>
       <c r="O40" t="n">
-        <v>2.01665496137253</v>
+        <v>3.485335476094817</v>
       </c>
       <c r="P40" t="n">
-        <v>0.07023176482391895</v>
+        <v>0.07030936118923262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.364502859436139</v>
+        <v>2.470871836078746</v>
       </c>
       <c r="R40" t="n">
-        <v>6.521521019363901</v>
+        <v>3.565689031739653</v>
       </c>
       <c r="S40" t="n">
-        <v>3.421290257850909</v>
+        <v>2.772197669746886</v>
       </c>
       <c r="T40" t="n">
-        <v>4.795826226547608</v>
+        <v>4.72077139413419</v>
       </c>
       <c r="U40" t="n">
-        <v>0.6421189926758304</v>
+        <v>0.8437123342707914</v>
       </c>
       <c r="V40" t="n">
-        <v>100</v>
+        <v>99.99999999999997</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Bt granodiorite</t>
+          <t>Quartz monzonite</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -4594,15 +4598,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>A.GDmitrieva</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Det.:co2-0.08</t>
+        </is>
+      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD40" t="n">
@@ -4611,13 +4615,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4016</v>
+        <v>4189</v>
       </c>
       <c r="B41" t="n">
-        <v>561781.1767618281</v>
+        <v>672065.9584312229</v>
       </c>
       <c r="C41" t="n">
-        <v>7714632.668402283</v>
+        <v>7731231.503319012</v>
       </c>
       <c r="D41" t="n">
         <v>55</v>
@@ -4629,68 +4633,68 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>69°32'0.0"</t>
+          <t>69°38'0.0"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>148°35'0.0"</t>
+          <t>151°26'0.0"</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>69.53333137320371</v>
+        <v>69.63335637752245</v>
       </c>
       <c r="J41" t="n">
-        <v>148.5833313732036</v>
+        <v>151.4333563775224</v>
       </c>
       <c r="K41" t="n">
-        <v>64.61306532663316</v>
+        <v>63.38127325756814</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7236180904522613</v>
+        <v>0.4928090113647792</v>
       </c>
       <c r="M41" t="n">
-        <v>15.96984924623116</v>
+        <v>16.07160816654933</v>
       </c>
       <c r="N41" t="n">
-        <v>1.869346733668342</v>
+        <v>1.287337825605954</v>
       </c>
       <c r="O41" t="n">
-        <v>2.944723618090452</v>
+        <v>3.570351000704012</v>
       </c>
       <c r="P41" t="n">
-        <v>0.07035175879396985</v>
+        <v>0.1005732676254651</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.547738693467337</v>
+        <v>2.946796741426129</v>
       </c>
       <c r="R41" t="n">
-        <v>3.809045226130654</v>
+        <v>4.938147440410338</v>
       </c>
       <c r="S41" t="n">
-        <v>2.904522613065327</v>
+        <v>2.494217037111536</v>
       </c>
       <c r="T41" t="n">
-        <v>4.693467336683417</v>
+        <v>3.831841496530222</v>
       </c>
       <c r="U41" t="n">
-        <v>0.8542713567839196</v>
+        <v>0.8850447551040932</v>
       </c>
       <c r="V41" t="n">
         <v>100</v>
       </c>
       <c r="W41" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Bt-Amf granodiorite medium-grained</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -4700,13 +4704,13 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>A.I.Kaleschuk</t>
+          <t>Ulakhan</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD41" t="n">
@@ -4715,13 +4719,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4068</v>
+        <v>4230</v>
       </c>
       <c r="B42" t="n">
-        <v>559878.2661908416</v>
+        <v>586635.5150587122</v>
       </c>
       <c r="C42" t="n">
-        <v>7712728.423108309</v>
+        <v>7693081.41358103</v>
       </c>
       <c r="D42" t="n">
         <v>55</v>
@@ -4733,63 +4737,63 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>69°31'0.0"</t>
+          <t>69°20'0.0"</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>148°32'0.0"</t>
+          <t>149°12'0.0"</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>69.51669574813704</v>
+        <v>69.33327887384213</v>
       </c>
       <c r="J42" t="n">
-        <v>148.5333624148037</v>
+        <v>149.1999455405088</v>
       </c>
       <c r="K42" t="n">
-        <v>64.14866901054748</v>
+        <v>62.76297335203365</v>
       </c>
       <c r="L42" t="n">
-        <v>0.743345052737318</v>
+        <v>0.7112803045481867</v>
       </c>
       <c r="M42" t="n">
-        <v>15.74083375188348</v>
+        <v>17.75195351632939</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1305876443997991</v>
+        <v>1.662993388098577</v>
       </c>
       <c r="O42" t="n">
-        <v>4.048216976393773</v>
+        <v>1.302344219595271</v>
       </c>
       <c r="P42" t="n">
-        <v>0.06027122049221497</v>
+        <v>0.07012622720897616</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.747865394274234</v>
+        <v>2.093768783810859</v>
       </c>
       <c r="R42" t="n">
-        <v>4.399799095931693</v>
+        <v>5.890603085553996</v>
       </c>
       <c r="S42" t="n">
-        <v>3.204419889502763</v>
+        <v>3.526347425365658</v>
       </c>
       <c r="T42" t="n">
-        <v>4.43997990959317</v>
+        <v>3.04548186736125</v>
       </c>
       <c r="U42" t="n">
-        <v>1.336012054244099</v>
+        <v>1.182127830094169</v>
       </c>
       <c r="V42" t="n">
         <v>100</v>
       </c>
       <c r="W42" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Bt granodiorite</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -4804,10 +4808,14 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr"/>
+          <t>A.I.Kaleschuk</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Oth:S03-0.05</t>
+        </is>
+      </c>
       <c r="AC42" t="inlineStr">
         <is>
           <t>G.S.Sonin,1976</t>
@@ -4819,13 +4827,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4080</v>
+        <v>4242</v>
       </c>
       <c r="B43" t="n">
-        <v>670508.3386669446</v>
+        <v>599300.4324728232</v>
       </c>
       <c r="C43" t="n">
-        <v>7734853.185783997</v>
+        <v>7704749.259795088</v>
       </c>
       <c r="D43" t="n">
         <v>55</v>
@@ -4837,68 +4845,68 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>69°40'0.0"</t>
+          <t>69°26'0.0"</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>151°24'0.0"</t>
+          <t>149°32'0.0"</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>69.66674614976057</v>
+        <v>69.43343559906506</v>
       </c>
       <c r="J43" t="n">
-        <v>151.4000794830939</v>
+        <v>149.533435599065</v>
       </c>
       <c r="K43" t="n">
-        <v>63.86386386386386</v>
+        <v>62.87696019300362</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4604604604604604</v>
+        <v>0.492561318858062</v>
       </c>
       <c r="M43" t="n">
-        <v>16.21621621621621</v>
+        <v>16.74708484117411</v>
       </c>
       <c r="N43" t="n">
-        <v>1.201201201201201</v>
+        <v>1.156011258544431</v>
       </c>
       <c r="O43" t="n">
-        <v>2.772772772772773</v>
+        <v>1.22637716123844</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1101101101101101</v>
+        <v>0.07036590269400886</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.292292292292292</v>
+        <v>1.779252110977081</v>
       </c>
       <c r="R43" t="n">
-        <v>5.455455455455455</v>
+        <v>7.046642541214315</v>
       </c>
       <c r="S43" t="n">
-        <v>3.163163163163163</v>
+        <v>2.784479292320065</v>
       </c>
       <c r="T43" t="n">
-        <v>3.703703703703703</v>
+        <v>3.970647366304785</v>
       </c>
       <c r="U43" t="n">
-        <v>0.7607607607607607</v>
+        <v>1.84961801367109</v>
       </c>
       <c r="V43" t="n">
         <v>100</v>
       </c>
       <c r="W43" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Granite</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -4906,15 +4914,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>Oth.:S03-0.04</t>
-        </is>
-      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>A.I.Kaleschuk</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD43" t="n">
@@ -4923,13 +4931,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4088</v>
+        <v>4334</v>
       </c>
       <c r="B44" t="n">
-        <v>680683.051474323</v>
+        <v>667785.4762621407</v>
       </c>
       <c r="C44" t="n">
-        <v>7737473.465856426</v>
+        <v>7736480.58715317</v>
       </c>
       <c r="D44" t="n">
         <v>55</v>
@@ -4946,58 +4954,58 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>151°40'0.0"</t>
+          <t>151°20'0.0"</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>69.68340733684619</v>
+        <v>69.68304089698806</v>
       </c>
       <c r="J44" t="n">
-        <v>151.6667406701796</v>
+        <v>151.333040896988</v>
       </c>
       <c r="K44" t="n">
-        <v>64.04178384893531</v>
+        <v>61.32216571941371</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6126958617918842</v>
+        <v>0.6182071991225447</v>
       </c>
       <c r="M44" t="n">
-        <v>15.9602249899558</v>
+        <v>16.47223053145877</v>
       </c>
       <c r="N44" t="n">
-        <v>1.456408196062676</v>
+        <v>1.645228836374514</v>
       </c>
       <c r="O44" t="n">
-        <v>3.485335476094817</v>
+        <v>3.709243194735269</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07030936118923262</v>
+        <v>0.08973975471133713</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.470871836078746</v>
+        <v>2.821816731478712</v>
       </c>
       <c r="R44" t="n">
-        <v>3.565689031739653</v>
+        <v>6.032505733373219</v>
       </c>
       <c r="S44" t="n">
-        <v>2.772197669746886</v>
+        <v>3.011267324758202</v>
       </c>
       <c r="T44" t="n">
-        <v>4.72077139413419</v>
+        <v>3.569648020739855</v>
       </c>
       <c r="U44" t="n">
-        <v>0.8437123342707914</v>
+        <v>0.707946953833882</v>
       </c>
       <c r="V44" t="n">
-        <v>99.99999999999997</v>
+        <v>100</v>
       </c>
       <c r="W44" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Quartz monzonite</t>
+          <t>Quartz diorite</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5013,7 +5021,7 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>Det.:co2-0.08</t>
+          <t>Oth:S03-0.05</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -5027,13 +5035,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4189</v>
+        <v>4348</v>
       </c>
       <c r="B45" t="n">
-        <v>672065.9584312229</v>
+        <v>597611.5040622641</v>
       </c>
       <c r="C45" t="n">
-        <v>7731231.503319012</v>
+        <v>7713970.529807929</v>
       </c>
       <c r="D45" t="n">
         <v>55</v>
@@ -5045,68 +5053,68 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>69°38'0.0"</t>
+          <t>69°31'0.0"</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>151°26'0.0"</t>
+          <t>149°30'0.0"</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>69.63335637752245</v>
+        <v>69.51667272369785</v>
       </c>
       <c r="J45" t="n">
-        <v>151.4333563775224</v>
+        <v>149.5000060570312</v>
       </c>
       <c r="K45" t="n">
-        <v>63.38127325756814</v>
+        <v>61.21085178535807</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4928090113647792</v>
+        <v>0.6084181129064432</v>
       </c>
       <c r="M45" t="n">
-        <v>16.07160816654933</v>
+        <v>16.71653700379015</v>
       </c>
       <c r="N45" t="n">
-        <v>1.287337825605954</v>
+        <v>0.3989626969878316</v>
       </c>
       <c r="O45" t="n">
-        <v>3.570351000704012</v>
+        <v>6.173947735886695</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1005732676254651</v>
+        <v>0.18950728106922</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.946796741426129</v>
+        <v>3.201675643327349</v>
       </c>
       <c r="R45" t="n">
-        <v>4.938147440410338</v>
+        <v>5.336126072212247</v>
       </c>
       <c r="S45" t="n">
-        <v>2.494217037111536</v>
+        <v>1.655695192499501</v>
       </c>
       <c r="T45" t="n">
-        <v>3.831841496530222</v>
+        <v>3.03211649710752</v>
       </c>
       <c r="U45" t="n">
-        <v>0.8850447551040932</v>
+        <v>1.476161978854977</v>
       </c>
       <c r="V45" t="n">
         <v>100</v>
       </c>
       <c r="W45" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Bt-Amf granodiorite medium-grained</t>
+          <t>Quartz diorite</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5116,13 +5124,13 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Ulakhan</t>
+          <t>K.I.Kashirtseva</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>M.F.Dement'ev,1967</t>
         </is>
       </c>
       <c r="AD45" t="n">
@@ -5131,13 +5139,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4230</v>
+        <v>4411</v>
       </c>
       <c r="B46" t="n">
-        <v>586635.5150587122</v>
+        <v>579791.6085771272</v>
       </c>
       <c r="C46" t="n">
-        <v>7693081.41358103</v>
+        <v>7720725.146390126</v>
       </c>
       <c r="D46" t="n">
         <v>55</v>
@@ -5149,63 +5157,63 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>69°20'0.0"</t>
+          <t>69°35'0.0"</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>149°12'0.0"</t>
+          <t>149°3'0.0"</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>69.33327887384213</v>
+        <v>69.58314203830471</v>
       </c>
       <c r="J46" t="n">
-        <v>149.1999455405088</v>
+        <v>149.0498087049714</v>
       </c>
       <c r="K46" t="n">
-        <v>62.76297335203365</v>
+        <v>60.76876756322762</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7112803045481867</v>
+        <v>0.5720594138900039</v>
       </c>
       <c r="M46" t="n">
-        <v>17.75195351632939</v>
+        <v>18.28582898434363</v>
       </c>
       <c r="N46" t="n">
-        <v>1.662993388098577</v>
+        <v>0.0702529104777198</v>
       </c>
       <c r="O46" t="n">
-        <v>1.302344219595271</v>
+        <v>5.118426334805299</v>
       </c>
       <c r="P46" t="n">
-        <v>0.07012622720897616</v>
+        <v>0.09032517061421115</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.093768783810859</v>
+        <v>0.923323966278603</v>
       </c>
       <c r="R46" t="n">
-        <v>5.890603085553996</v>
+        <v>4.606583701324769</v>
       </c>
       <c r="S46" t="n">
-        <v>3.526347425365658</v>
+        <v>3.602970694500201</v>
       </c>
       <c r="T46" t="n">
-        <v>3.04548186736125</v>
+        <v>5.098354074668808</v>
       </c>
       <c r="U46" t="n">
-        <v>1.182127830094169</v>
+        <v>0.8631071858691288</v>
       </c>
       <c r="V46" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W46" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5220,12 +5228,12 @@
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>A.I.Kaleschuk</t>
+          <t>A.G.Dmitrieva</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>Oth:S03-0.05</t>
+          <t>Det:H2o+-0.52</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -5239,13 +5247,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4242</v>
+        <v>4426</v>
       </c>
       <c r="B47" t="n">
-        <v>599300.4324728232</v>
+        <v>676998.3984960853</v>
       </c>
       <c r="C47" t="n">
-        <v>7704749.259795088</v>
+        <v>7725989.561528074</v>
       </c>
       <c r="D47" t="n">
         <v>55</v>
@@ -5257,68 +5265,68 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>69°26'0.0"</t>
+          <t>69°35'0.0"</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>149°32'0.0"</t>
+          <t>151°33'0.0"</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>69.43343559906506</v>
+        <v>69.58324614223963</v>
       </c>
       <c r="J47" t="n">
-        <v>149.533435599065</v>
+        <v>151.5499128089063</v>
       </c>
       <c r="K47" t="n">
-        <v>62.87696019300362</v>
+        <v>59.94821748655645</v>
       </c>
       <c r="L47" t="n">
-        <v>0.492561318858062</v>
+        <v>0.5974905397331208</v>
       </c>
       <c r="M47" t="n">
-        <v>16.74708484117411</v>
+        <v>17.0583549093806</v>
       </c>
       <c r="N47" t="n">
-        <v>1.156011258544431</v>
+        <v>0.8862776339374625</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22637716123844</v>
+        <v>3.266281617207726</v>
       </c>
       <c r="P47" t="n">
-        <v>0.07036590269400886</v>
+        <v>0.1095399322844055</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.779252110977081</v>
+        <v>3.435570603465445</v>
       </c>
       <c r="R47" t="n">
-        <v>7.046642541214315</v>
+        <v>6.223859788886675</v>
       </c>
       <c r="S47" t="n">
-        <v>2.784479292320065</v>
+        <v>2.290380402310296</v>
       </c>
       <c r="T47" t="n">
-        <v>3.970647366304785</v>
+        <v>4.540928101971717</v>
       </c>
       <c r="U47" t="n">
-        <v>1.84961801367109</v>
+        <v>1.643098984266082</v>
       </c>
       <c r="V47" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Granite</t>
+          <t>Quartz diorite</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5326,15 +5334,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>A.I.Kaleschuk</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Oth.:S03-0.09</t>
+        </is>
+      </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD47" t="n">
@@ -5343,13 +5351,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4334</v>
+        <v>4473</v>
       </c>
       <c r="B48" t="n">
-        <v>667785.4762621407</v>
+        <v>680092.7856194393</v>
       </c>
       <c r="C48" t="n">
-        <v>7736480.58715317</v>
+        <v>7728082.271788144</v>
       </c>
       <c r="D48" t="n">
         <v>55</v>
@@ -5361,59 +5369,59 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>69°41'0.0"</t>
+          <t>69°36'0.0"</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>151°20'0.0"</t>
+          <t>151°38'0.0"</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>69.68304089698806</v>
+        <v>69.59987060536423</v>
       </c>
       <c r="J48" t="n">
-        <v>151.333040896988</v>
+        <v>151.6332039386976</v>
       </c>
       <c r="K48" t="n">
-        <v>61.32216571941371</v>
+        <v>58.80362297203144</v>
       </c>
       <c r="L48" t="n">
-        <v>0.6182071991225447</v>
+        <v>0.4976609933313426</v>
       </c>
       <c r="M48" t="n">
-        <v>16.47223053145877</v>
+        <v>16.67164327659998</v>
       </c>
       <c r="N48" t="n">
-        <v>1.645228836374514</v>
+        <v>1.383497561461132</v>
       </c>
       <c r="O48" t="n">
-        <v>3.709243194735269</v>
+        <v>4.936797053846919</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08973975471133713</v>
+        <v>0.1492982979994028</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.821816731478712</v>
+        <v>4.050960485717129</v>
       </c>
       <c r="R48" t="n">
-        <v>6.032505733373219</v>
+        <v>5.772867522643574</v>
       </c>
       <c r="S48" t="n">
-        <v>3.011267324758202</v>
+        <v>2.707275803722504</v>
       </c>
       <c r="T48" t="n">
-        <v>3.569648020739855</v>
+        <v>3.384094754653129</v>
       </c>
       <c r="U48" t="n">
-        <v>0.707946953833882</v>
+        <v>1.642281277993431</v>
       </c>
       <c r="V48" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W48" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5433,7 +5441,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>Oth:S03-0.05</t>
+          <t>Oet.:co2-0.05</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -5447,13 +5455,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4348</v>
+        <v>4494</v>
       </c>
       <c r="B49" t="n">
-        <v>597611.5040622641</v>
+        <v>597691.8668916984</v>
       </c>
       <c r="C49" t="n">
-        <v>7713970.529807929</v>
+        <v>7712127.785885192</v>
       </c>
       <c r="D49" t="n">
         <v>55</v>
@@ -5465,7 +5473,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>69°31'0.0"</t>
+          <t>69°30'0.0"</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5475,53 +5483,53 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>69.51667272369785</v>
+        <v>69.50013380501341</v>
       </c>
       <c r="J49" t="n">
-        <v>149.5000060570312</v>
+        <v>149.5001338050134</v>
       </c>
       <c r="K49" t="n">
-        <v>61.21085178535807</v>
+        <v>58.74574233620516</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6084181129064432</v>
+        <v>0.8114606291324384</v>
       </c>
       <c r="M49" t="n">
-        <v>16.71653700379015</v>
+        <v>18.1927469445001</v>
       </c>
       <c r="N49" t="n">
-        <v>0.3989626969878316</v>
+        <v>0.4508114606291324</v>
       </c>
       <c r="O49" t="n">
-        <v>6.173947735886695</v>
+        <v>5.279503105590061</v>
       </c>
       <c r="P49" t="n">
-        <v>0.18950728106922</v>
+        <v>0.08014425966740132</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.201675643327349</v>
+        <v>1.873372069725506</v>
       </c>
       <c r="R49" t="n">
-        <v>5.336126072212247</v>
+        <v>6.030855539971949</v>
       </c>
       <c r="S49" t="n">
-        <v>1.655695192499501</v>
+        <v>3.015427769985974</v>
       </c>
       <c r="T49" t="n">
-        <v>3.03211649710752</v>
+        <v>3.816870366659988</v>
       </c>
       <c r="U49" t="n">
-        <v>1.476161978854977</v>
+        <v>1.703065517932278</v>
       </c>
       <c r="V49" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W49" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Quartz diorite</t>
+          <t>Granodiorite</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5536,13 +5544,17 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>K.I.Kashirtseva</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr"/>
+          <t>A.I.Kaleschuk</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Oth:S03-0.17</t>
+        </is>
+      </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>M.F.Dement'ev,1967</t>
+          <t>G.S.Sonin,1976</t>
         </is>
       </c>
       <c r="AD49" t="n">
@@ -5551,13 +5563,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4411</v>
+        <v>4512</v>
       </c>
       <c r="B50" t="n">
-        <v>579791.6085771272</v>
+        <v>676214.7493078805</v>
       </c>
       <c r="C50" t="n">
-        <v>7720725.146390126</v>
+        <v>7727800.961637639</v>
       </c>
       <c r="D50" t="n">
         <v>55</v>
@@ -5569,68 +5581,68 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>69°35'0.0"</t>
+          <t>69°36'0.0"</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>149°3'0.0"</t>
+          <t>151°32'0.0"</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>69.58314203830471</v>
+        <v>69.59996062517895</v>
       </c>
       <c r="J50" t="n">
-        <v>149.0498087049714</v>
+        <v>151.5332939585123</v>
       </c>
       <c r="K50" t="n">
-        <v>60.76876756322762</v>
+        <v>58.21924652743079</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5720594138900039</v>
+        <v>0.6195663035874887</v>
       </c>
       <c r="M50" t="n">
-        <v>18.28582898434363</v>
+        <v>17.0180873388628</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0702529104777198</v>
+        <v>1.45897871489957</v>
       </c>
       <c r="O50" t="n">
-        <v>5.118426334805299</v>
+        <v>4.736684320975317</v>
       </c>
       <c r="P50" t="n">
-        <v>0.09032517061421115</v>
+        <v>0.1299090636554412</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.923323966278603</v>
+        <v>4.416908164285</v>
       </c>
       <c r="R50" t="n">
-        <v>4.606583701324769</v>
+        <v>6.095732986909163</v>
       </c>
       <c r="S50" t="n">
-        <v>3.602970694500201</v>
+        <v>2.897971420005995</v>
       </c>
       <c r="T50" t="n">
-        <v>5.098354074668808</v>
+        <v>3.197761566903168</v>
       </c>
       <c r="U50" t="n">
-        <v>0.8631071858691288</v>
+        <v>1.20915359248526</v>
       </c>
       <c r="V50" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Quartz diorite</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -5638,19 +5650,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>Det:H2o+-0.52</t>
+          <t>Oth.:S03-0.06</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD50" t="n">
@@ -5659,13 +5667,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4426</v>
+        <v>4555</v>
       </c>
       <c r="B51" t="n">
-        <v>676998.3984960853</v>
+        <v>679251.2759672181</v>
       </c>
       <c r="C51" t="n">
-        <v>7725989.561528074</v>
+        <v>7739219.910267774</v>
       </c>
       <c r="D51" t="n">
         <v>55</v>
@@ -5677,63 +5685,63 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>69°35'0.0"</t>
+          <t>69°42'0.0"</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>151°33'0.0"</t>
+          <t>151°38'0.0"</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>69.58324614223963</v>
+        <v>69.69999325362255</v>
       </c>
       <c r="J51" t="n">
-        <v>151.5499128089063</v>
+        <v>151.6333265869558</v>
       </c>
       <c r="K51" t="n">
-        <v>59.94821748655645</v>
+        <v>56.89877818615278</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5974905397331208</v>
+        <v>0.5562729710936725</v>
       </c>
       <c r="M51" t="n">
-        <v>17.0583549093806</v>
+        <v>17.55239892718784</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8862776339374625</v>
+        <v>0.9039435780272177</v>
       </c>
       <c r="O51" t="n">
-        <v>3.266281617207726</v>
+        <v>5.284593225389888</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1095399322844055</v>
+        <v>0.1688685805105791</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.435570603465445</v>
+        <v>4.529651336048475</v>
       </c>
       <c r="R51" t="n">
-        <v>6.223859788886675</v>
+        <v>7.350749975166386</v>
       </c>
       <c r="S51" t="n">
-        <v>2.290380402310296</v>
+        <v>2.701897288169266</v>
       </c>
       <c r="T51" t="n">
-        <v>4.540928101971717</v>
+        <v>3.079368232839972</v>
       </c>
       <c r="U51" t="n">
-        <v>1.643098984266082</v>
+        <v>0.9734776994139266</v>
       </c>
       <c r="V51" t="n">
         <v>99.99999999999999</v>
       </c>
       <c r="W51" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Quartz diorite</t>
+          <t>Diorite</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -5749,7 +5757,7 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>Oth.:S03-0.09</t>
+          <t>Oth.:so3-0,10</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -5763,13 +5771,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4473</v>
+        <v>4590</v>
       </c>
       <c r="B52" t="n">
-        <v>680092.7856194393</v>
+        <v>600626.2174413466</v>
       </c>
       <c r="C52" t="n">
-        <v>7728082.271788144</v>
+        <v>7719670.963492122</v>
       </c>
       <c r="D52" t="n">
         <v>55</v>
@@ -5781,68 +5789,68 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>69°36'0.0"</t>
+          <t>69°34'0.0"</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>151°38'0.0"</t>
+          <t>149°35'0.0"</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>69.59987060536423</v>
+        <v>69.56661884553394</v>
       </c>
       <c r="J52" t="n">
-        <v>151.6332039386976</v>
+        <v>149.5832855122006</v>
       </c>
       <c r="K52" t="n">
-        <v>58.80362297203144</v>
+        <v>56.01763703777934</v>
       </c>
       <c r="L52" t="n">
-        <v>0.4976609933313426</v>
+        <v>0.8718308447740255</v>
       </c>
       <c r="M52" t="n">
-        <v>16.67164327659998</v>
+        <v>16.30423890169356</v>
       </c>
       <c r="N52" t="n">
-        <v>1.383497561461132</v>
+        <v>1.443030363763904</v>
       </c>
       <c r="O52" t="n">
-        <v>4.936797053846919</v>
+        <v>6.223068443731837</v>
       </c>
       <c r="P52" t="n">
-        <v>0.1492982979994028</v>
+        <v>0.1903998396632929</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.050960485717129</v>
+        <v>4.850185389317567</v>
       </c>
       <c r="R52" t="n">
-        <v>5.772867522643574</v>
+        <v>8.578013829040987</v>
       </c>
       <c r="S52" t="n">
-        <v>2.707275803722504</v>
+        <v>1.733640645355246</v>
       </c>
       <c r="T52" t="n">
-        <v>3.384094754653129</v>
+        <v>2.244713899188296</v>
       </c>
       <c r="U52" t="n">
-        <v>1.642281277993431</v>
+        <v>1.543240805691953</v>
       </c>
       <c r="V52" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W52" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Quartz diorite</t>
+          <t>Diorite</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -5850,15 +5858,15 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>Oet.:co2-0.05</t>
-        </is>
-      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>A.G.Dmitrieva</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>G.S.Sonin,1975</t>
         </is>
       </c>
       <c r="AD52" t="n">
@@ -5867,13 +5875,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4494</v>
+        <v>4616</v>
       </c>
       <c r="B53" t="n">
-        <v>597691.8668916984</v>
+        <v>672495.7365012174</v>
       </c>
       <c r="C53" t="n">
-        <v>7712127.785885192</v>
+        <v>7716356.960480934</v>
       </c>
       <c r="D53" t="n">
         <v>55</v>
@@ -5890,63 +5898,63 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>149°30'0.0"</t>
+          <t>151°25'0.0"</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>69.50013380501341</v>
+        <v>69.50008561782786</v>
       </c>
       <c r="J53" t="n">
-        <v>149.5001338050134</v>
+        <v>151.4167522844946</v>
       </c>
       <c r="K53" t="n">
-        <v>58.74574233620516</v>
+        <v>55.28137225398737</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8114606291324384</v>
+        <v>0.7222389407162203</v>
       </c>
       <c r="M53" t="n">
-        <v>18.1927469445001</v>
+        <v>16.99267729962885</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4508114606291324</v>
+        <v>4.062594041528739</v>
       </c>
       <c r="O53" t="n">
-        <v>5.279503105590061</v>
+        <v>4.052562945129903</v>
       </c>
       <c r="P53" t="n">
-        <v>0.08014425966740132</v>
+        <v>0.1504664459825459</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.873372069725506</v>
+        <v>4.42371351188685</v>
       </c>
       <c r="R53" t="n">
-        <v>6.030855539971949</v>
+        <v>6.971611997191294</v>
       </c>
       <c r="S53" t="n">
-        <v>3.015427769985974</v>
+        <v>2.909017955662554</v>
       </c>
       <c r="T53" t="n">
-        <v>3.816870366659988</v>
+        <v>3.219981944026483</v>
       </c>
       <c r="U53" t="n">
-        <v>1.703065517932278</v>
+        <v>1.213762664259204</v>
       </c>
       <c r="V53" t="n">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="W53" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Granodiorite</t>
+          <t>Diorite</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>J</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -5956,17 +5964,17 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>A.I.Kaleschuk</t>
+          <t>.~so3</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>Oth:S03-0.17</t>
+          <t>Oth-0.06</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>G.S.Sonin,1976</t>
+          <t>A.V.Artemov,1970</t>
         </is>
       </c>
       <c r="AD53" t="n">
@@ -5975,13 +5983,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4512</v>
+        <v>4645</v>
       </c>
       <c r="B54" t="n">
-        <v>676214.7493078805</v>
+        <v>631320.7237688542</v>
       </c>
       <c r="C54" t="n">
-        <v>7727800.961637639</v>
+        <v>7717444.770577199</v>
       </c>
       <c r="D54" t="n">
         <v>55</v>
@@ -5993,68 +6001,68 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>69°36'0.0"</t>
+          <t>69°32'0.0"</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>151°32'0.0"</t>
+          <t>150°22'0.0"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>69.59996062517895</v>
+        <v>69.53329591442051</v>
       </c>
       <c r="J54" t="n">
-        <v>151.5332939585123</v>
+        <v>150.3666292477538</v>
       </c>
       <c r="K54" t="n">
-        <v>58.21924652743079</v>
+        <v>52.82362298667726</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6195663035874887</v>
+        <v>0.9146947703320739</v>
       </c>
       <c r="M54" t="n">
-        <v>17.0180873388628</v>
+        <v>16.90196858222311</v>
       </c>
       <c r="N54" t="n">
-        <v>1.45897871489957</v>
+        <v>0.9842911115529925</v>
       </c>
       <c r="O54" t="n">
-        <v>4.736684320975317</v>
+        <v>7.228077152515409</v>
       </c>
       <c r="P54" t="n">
-        <v>0.1299090636554412</v>
+        <v>0.09942334460131237</v>
       </c>
       <c r="Q54" t="n">
-        <v>4.416908164285</v>
+        <v>4.911513223304832</v>
       </c>
       <c r="R54" t="n">
-        <v>6.095732986909163</v>
+        <v>7.377212169417378</v>
       </c>
       <c r="S54" t="n">
-        <v>2.897971420005995</v>
+        <v>2.873334658977928</v>
       </c>
       <c r="T54" t="n">
-        <v>3.197761566903168</v>
+        <v>3.718433088089083</v>
       </c>
       <c r="U54" t="n">
-        <v>1.20915359248526</v>
+        <v>2.16742891230861</v>
       </c>
       <c r="V54" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="W54" t="n">
         <v>0.17</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Quartz diorite</t>
+          <t>Bt-Amf granodiorite</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>K</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6062,442 +6070,22 @@
           <t>Ulakhan-Sis massif</t>
         </is>
       </c>
-      <c r="AA54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>E.A.Lagovskaya</t>
+        </is>
+      </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>Oth.:S03-0.06</t>
+          <t>Oth:Ba2o3-0.32.Det.:H2o+-0.80</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>A.V.Artemov,1970</t>
+          <t>M.F.Dement'ev,1967</t>
         </is>
       </c>
       <c r="AD54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>4555</v>
-      </c>
-      <c r="B55" t="n">
-        <v>679251.2759672181</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7739219.910267774</v>
-      </c>
-      <c r="D55" t="n">
-        <v>55</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>69°42'0.0"</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>151°38'0.0"</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>69.69999325362255</v>
-      </c>
-      <c r="J55" t="n">
-        <v>151.6333265869558</v>
-      </c>
-      <c r="K55" t="n">
-        <v>56.89877818615278</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.5562729710936725</v>
-      </c>
-      <c r="M55" t="n">
-        <v>17.55239892718784</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.9039435780272177</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5.284593225389888</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0.1688685805105791</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4.529651336048475</v>
-      </c>
-      <c r="R55" t="n">
-        <v>7.350749975166386</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.701897288169266</v>
-      </c>
-      <c r="T55" t="n">
-        <v>3.079368232839972</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0.9734776994139266</v>
-      </c>
-      <c r="V55" t="n">
-        <v>99.99999999999999</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>Diorite</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>Ulakhan-Sis massif</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>Oth.:so3-0,10</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>A.V.Artemov,1970</t>
-        </is>
-      </c>
-      <c r="AD55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>4590</v>
-      </c>
-      <c r="B56" t="n">
-        <v>600626.2174413466</v>
-      </c>
-      <c r="C56" t="n">
-        <v>7719670.963492122</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>69°34'0.0"</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>149°35'0.0"</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>69.56661884553394</v>
-      </c>
-      <c r="J56" t="n">
-        <v>149.5832855122006</v>
-      </c>
-      <c r="K56" t="n">
-        <v>56.01763703777934</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.8718308447740255</v>
-      </c>
-      <c r="M56" t="n">
-        <v>16.30423890169356</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.443030363763904</v>
-      </c>
-      <c r="O56" t="n">
-        <v>6.223068443731837</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.1903998396632929</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4.850185389317567</v>
-      </c>
-      <c r="R56" t="n">
-        <v>8.578013829040987</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.733640645355246</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.244713899188296</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.543240805691953</v>
-      </c>
-      <c r="V56" t="n">
-        <v>100</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>Diorite</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>Ulakhan-Sis massif</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>A.G.Dmitrieva</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>G.S.Sonin,1975</t>
-        </is>
-      </c>
-      <c r="AD56" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>4616</v>
-      </c>
-      <c r="B57" t="n">
-        <v>672495.7365012174</v>
-      </c>
-      <c r="C57" t="n">
-        <v>7716356.960480934</v>
-      </c>
-      <c r="D57" t="n">
-        <v>55</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>69°30'0.0"</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>151°25'0.0"</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
-        <v>69.50008561782786</v>
-      </c>
-      <c r="J57" t="n">
-        <v>151.4167522844946</v>
-      </c>
-      <c r="K57" t="n">
-        <v>55.28137225398737</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.7222389407162203</v>
-      </c>
-      <c r="M57" t="n">
-        <v>16.99267729962885</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4.062594041528739</v>
-      </c>
-      <c r="O57" t="n">
-        <v>4.052562945129903</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.1504664459825459</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4.42371351188685</v>
-      </c>
-      <c r="R57" t="n">
-        <v>6.971611997191294</v>
-      </c>
-      <c r="S57" t="n">
-        <v>2.909017955662554</v>
-      </c>
-      <c r="T57" t="n">
-        <v>3.219981944026483</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.213762664259204</v>
-      </c>
-      <c r="V57" t="n">
-        <v>100</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>Diorite</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Ulakhan-Sis massif</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>.~so3</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>Oth-0.06</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>A.V.Artemov,1970</t>
-        </is>
-      </c>
-      <c r="AD57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>4645</v>
-      </c>
-      <c r="B58" t="n">
-        <v>631320.7237688542</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7717444.770577199</v>
-      </c>
-      <c r="D58" t="n">
-        <v>55</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>69°32'0.0"</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>150°22'0.0"</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>69.53329591442051</v>
-      </c>
-      <c r="J58" t="n">
-        <v>150.3666292477538</v>
-      </c>
-      <c r="K58" t="n">
-        <v>52.82362298667726</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.9146947703320739</v>
-      </c>
-      <c r="M58" t="n">
-        <v>16.90196858222311</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.9842911115529925</v>
-      </c>
-      <c r="O58" t="n">
-        <v>7.228077152515409</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.09942334460131237</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4.911513223304832</v>
-      </c>
-      <c r="R58" t="n">
-        <v>7.377212169417378</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2.873334658977928</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3.718433088089083</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2.16742891230861</v>
-      </c>
-      <c r="V58" t="n">
-        <v>99.99999999999999</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>Bt-Amf granodiorite</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>Ulakhan-Sis massif</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>E.A.Lagovskaya</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>Oth:Ba2o3-0.32.Det.:H2o+-0.80</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>M.F.Dement'ev,1967</t>
-        </is>
-      </c>
-      <c r="AD58" t="n">
         <v>8</v>
       </c>
     </row>
